--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1311,16 +1311,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1493,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2057,7 +2057,7 @@
         <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -2406,22 +2406,22 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
         <v>3.5</v>
@@ -2955,7 +2955,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
         <v>7</v>
@@ -3131,13 +3131,13 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
         <v>5.5</v>
@@ -3155,7 +3155,7 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
         <v>2.5</v>
@@ -3313,13 +3313,13 @@
         <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
         <v>4.5</v>
@@ -3495,13 +3495,13 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
@@ -789,13 +789,13 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -825,13 +825,13 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>29</v>
@@ -1311,16 +1311,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1493,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2955,7 +2955,7 @@
         <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
         <v>7</v>
@@ -3131,13 +3131,13 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
         <v>5.5</v>
@@ -3313,13 +3313,13 @@
         <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
         <v>4.5</v>
@@ -3495,13 +3495,13 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -5861,13 +5861,13 @@
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
@@ -6043,13 +6043,13 @@
         <v>3.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -6225,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
         <v>2.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5861,13 +5861,13 @@
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
@@ -6043,13 +6043,13 @@
         <v>3.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -6225,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
         <v>2.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
@@ -2767,22 +2767,22 @@
         <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -2809,13 +2809,13 @@
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
         <v>9</v>
@@ -2830,7 +2830,7 @@
         <v>81</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>12</v>
@@ -2875,7 +2875,7 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
         <v>9</v>
@@ -2890,7 +2890,7 @@
         <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
         <v>251</v>
@@ -2952,7 +2952,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>1.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -947,10 +947,10 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="H10" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -2227,10 +2227,10 @@
         <v>14.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="Q10" t="n">
         <v>1.52</v>
@@ -2239,58 +2239,58 @@
         <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.48</v>
+        <v>3.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
         <v>500</v>
@@ -2302,16 +2302,16 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AR10" t="n">
         <v>37</v>
@@ -2320,16 +2320,16 @@
         <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU10" t="n">
         <v>9.75</v>
       </c>
       <c r="AV10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AX10" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -894,7 +894,7 @@
         <v>140</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -2224,7 +2224,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.11</v>
@@ -2245,10 +2245,10 @@
         <v>3.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
         <v>6.2</v>
@@ -2767,10 +2767,10 @@
         <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -5130,7 +5130,7 @@
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5145,10 +5145,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5157,19 +5157,19 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
@@ -5181,7 +5181,7 @@
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
@@ -5202,7 +5202,7 @@
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>29</v>
@@ -5214,7 +5214,7 @@
         <v>26</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
@@ -5250,10 +5250,10 @@
         <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
         <v>126</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6106,10 +6106,10 @@
         <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
@@ -6127,7 +6127,7 @@
         <v>4.75</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6154,7 +6154,7 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -6589,10 +6589,10 @@
         <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -6622,13 +6622,13 @@
         <v>7</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
         <v>21</v>
@@ -6664,7 +6664,7 @@
         <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM34" t="n">
         <v>41</v>
@@ -6700,7 +6700,7 @@
         <v>5</v>
       </c>
       <c r="AX34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY34" t="n">
         <v>29</v>
@@ -6712,7 +6712,7 @@
         <v>81</v>
       </c>
       <c r="BB34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC34" t="n">
         <v>276</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1857,13 +1857,13 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2039,13 +2039,13 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>3.75</v>
@@ -3155,7 +3155,7 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V15" t="n">
         <v>2.5</v>
@@ -3337,10 +3337,10 @@
         <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -3492,13 +3492,13 @@
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3519,13 +3519,13 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
         <v>7</v>
@@ -3558,7 +3558,7 @@
         <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3567,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3603,7 +3603,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3677,13 +3677,13 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
         <v>6</v>
@@ -3859,13 +3859,13 @@
         <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -4041,13 +4041,13 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4223,13 +4223,13 @@
         <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
         <v>5.5</v>
@@ -4411,7 +4411,7 @@
         <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P22" t="n">
         <v>7</v>
@@ -4611,10 +4611,10 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6067,7 +6067,7 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V31" t="n">
         <v>2.5</v>
@@ -6249,10 +6249,10 @@
         <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W32" t="n">
         <v>9</v>
@@ -6401,7 +6401,7 @@
         <v>2.1</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L33" t="n">
         <v>5.5</v>
@@ -6431,10 +6431,10 @@
         <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W33" t="n">
         <v>7.5</v>
@@ -6613,10 +6613,10 @@
         <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1857,13 +1857,13 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2039,13 +2039,13 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
         <v>3.75</v>
@@ -3155,7 +3155,7 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
         <v>2.5</v>
@@ -3337,10 +3337,10 @@
         <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3677,13 +3677,13 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
         <v>6</v>
@@ -3695,7 +3695,7 @@
         <v>2.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
         <v>3.75</v>
@@ -3859,13 +3859,13 @@
         <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -3877,7 +3877,7 @@
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
         <v>3.25</v>
@@ -4041,13 +4041,13 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4059,7 +4059,7 @@
         <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
         <v>3.25</v>
@@ -4223,13 +4223,13 @@
         <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
         <v>5.5</v>
@@ -4241,7 +4241,7 @@
         <v>2.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T21" t="n">
         <v>3.75</v>
@@ -4411,7 +4411,7 @@
         <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P22" t="n">
         <v>7</v>
@@ -4423,7 +4423,7 @@
         <v>3.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T22" t="n">
         <v>4.33</v>
@@ -4605,16 +4605,16 @@
         <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T23" t="n">
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4969,16 +4969,16 @@
         <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5509,10 +5509,10 @@
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6055,7 +6055,7 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
@@ -6067,7 +6067,7 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
         <v>2.5</v>
@@ -6213,7 +6213,7 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -6240,7 +6240,7 @@
         <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6249,10 +6249,10 @@
         <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
         <v>9</v>
@@ -6401,7 +6401,7 @@
         <v>2.1</v>
       </c>
       <c r="K33" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
         <v>5.5</v>
@@ -6431,10 +6431,10 @@
         <v>3.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W33" t="n">
         <v>7.5</v>
@@ -6613,10 +6613,10 @@
         <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -6783,10 +6783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -7150,7 +7150,7 @@
         <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -3495,10 +3495,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3695,7 +3695,7 @@
         <v>2.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T18" t="n">
         <v>3.75</v>
@@ -3877,7 +3877,7 @@
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
         <v>3.25</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.3</v>
@@ -4059,7 +4059,7 @@
         <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
         <v>3.25</v>
@@ -4110,7 +4110,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4235,13 +4235,13 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
         <v>2.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
         <v>3.75</v>
@@ -4417,13 +4417,13 @@
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R22" t="n">
         <v>3.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T22" t="n">
         <v>4.33</v>
@@ -4602,10 +4602,10 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.5</v>
@@ -5151,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
         <v>3.25</v>
@@ -5333,7 +5333,7 @@
         <v>1.65</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T27" t="n">
         <v>2.5</v>
@@ -5497,25 +5497,25 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T28" t="n">
         <v>2.75</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
@@ -5873,13 +5873,13 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T30" t="n">
         <v>2.75</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6055,13 +6055,13 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
         <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T31" t="n">
         <v>3.5</v>
@@ -6213,7 +6213,7 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -6240,7 +6240,7 @@
         <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6783,10 +6783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>
@@ -7150,7 +7150,7 @@
         <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -3495,13 +3495,13 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -3677,13 +3677,13 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
         <v>6</v>
@@ -3859,13 +3859,13 @@
         <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -4041,13 +4041,13 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -4223,19 +4223,19 @@
         <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
         <v>2.6</v>
@@ -4411,13 +4411,13 @@
         <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P22" t="n">
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R22" t="n">
         <v>3.4</v>
@@ -4587,13 +4587,13 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
         <v>2.75</v>
@@ -4602,7 +4602,7 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4969,7 +4969,7 @@
         <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
@@ -5151,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
         <v>3.25</v>
@@ -5333,7 +5333,7 @@
         <v>1.65</v>
       </c>
       <c r="S27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
         <v>2.5</v>
@@ -5515,7 +5515,7 @@
         <v>1.9</v>
       </c>
       <c r="S28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
         <v>2.75</v>
@@ -5879,7 +5879,7 @@
         <v>1.85</v>
       </c>
       <c r="S30" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
         <v>2.75</v>
@@ -6061,7 +6061,7 @@
         <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1117,7 +1117,7 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1311,16 +1311,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1383,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1422,10 +1422,10 @@
         <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>51</v>
@@ -1493,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3143,7 +3143,7 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
         <v>2.4</v>
@@ -3155,7 +3155,7 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V15" t="n">
         <v>2.5</v>
@@ -3301,10 +3301,10 @@
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>2.38</v>
@@ -3316,7 +3316,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
         <v>1.18</v>
@@ -3325,7 +3325,7 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
         <v>2.3</v>
@@ -3337,10 +3337,10 @@
         <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
@@ -3355,13 +3355,13 @@
         <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
         <v>7.5</v>
@@ -3370,13 +3370,13 @@
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>126</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3495,13 +3495,13 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>3.75</v>
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3677,19 +3677,19 @@
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
         <v>19</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R18" t="n">
         <v>2.7</v>
@@ -3859,19 +3859,19 @@
         <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -4041,19 +4041,19 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
         <v>2.1</v>
@@ -4223,19 +4223,19 @@
         <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
         <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
         <v>2.6</v>
@@ -4411,13 +4411,13 @@
         <v>26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P22" t="n">
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R22" t="n">
         <v>3.4</v>
@@ -4441,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z22" t="n">
         <v>10</v>
@@ -4450,7 +4450,7 @@
         <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>26</v>
@@ -4474,13 +4474,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>81</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4495,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>29</v>
@@ -4587,13 +4587,13 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
         <v>2.75</v>
@@ -4602,7 +4602,7 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
@@ -4951,13 +4951,13 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
         <v>3.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5133,13 +5133,13 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
         <v>3.25</v>
@@ -5315,22 +5315,22 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5497,13 +5497,13 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5661,34 +5661,34 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="J29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q29" t="n">
         <v>1.72</v>
@@ -5697,10 +5697,10 @@
         <v>2.05</v>
       </c>
       <c r="S29" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="n">
         <v>1.65</v>
@@ -5712,25 +5712,25 @@
         <v>12.5</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB29" t="n">
         <v>35</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE29" t="n">
         <v>13.5</v>
@@ -5745,28 +5745,28 @@
         <v>8.25</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ29" t="n">
         <v>100</v>
@@ -5778,7 +5778,7 @@
         <v>300</v>
       </c>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5787,22 +5787,22 @@
         <v>55</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AX29" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AY29" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA29" t="n">
         <v>55</v>
       </c>
       <c r="BB29" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5861,13 +5861,13 @@
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6604,7 +6604,7 @@
         <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6613,10 +6613,10 @@
         <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6795,7 +6795,7 @@
         <v>2.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V35" t="n">
         <v>2</v>
@@ -7150,7 +7150,7 @@
         <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7162,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W37" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1311,16 +1311,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1493,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2227,7 +2227,7 @@
         <v>14.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
         <v>4.55</v>
@@ -2239,10 +2239,10 @@
         <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T10" t="n">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
         <v>2.3</v>
@@ -3143,7 +3143,7 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
         <v>2.4</v>
@@ -3155,7 +3155,7 @@
         <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
         <v>2.5</v>
@@ -3325,7 +3325,7 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
         <v>2.3</v>
@@ -3337,10 +3337,10 @@
         <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W16" t="n">
         <v>11</v>
@@ -3519,10 +3519,10 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3689,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
         <v>2.7</v>
@@ -3871,7 +3871,7 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -4053,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>2.1</v>
@@ -4235,7 +4235,7 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R21" t="n">
         <v>2.6</v>
@@ -4417,7 +4417,7 @@
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R22" t="n">
         <v>3.4</v>
@@ -4602,7 +4602,7 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
@@ -4951,13 +4951,13 @@
         <v>4.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>3.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5133,13 +5133,13 @@
         <v>3.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
         <v>3.25</v>
@@ -5315,13 +5315,13 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
         <v>2.75</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5497,13 +5497,13 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5861,13 +5861,13 @@
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
         <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6604,7 +6604,7 @@
         <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6613,10 +6613,10 @@
         <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6795,7 +6795,7 @@
         <v>2.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
         <v>2</v>
@@ -7150,7 +7150,7 @@
         <v>2.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7162,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W37" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,13 +765,13 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
@@ -947,22 +947,22 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1129,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
         <v>3.25</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1699,13 +1699,13 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1729,16 +1729,16 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1792,19 +1792,19 @@
         <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +1845,7 @@
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -2227,7 +2227,7 @@
         <v>14.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
         <v>4.55</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2415,7 +2415,7 @@
         <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
         <v>2.3</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2597,7 +2597,7 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>2.15</v>
@@ -2755,7 +2755,7 @@
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2779,10 +2779,10 @@
         <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R13" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
@@ -3507,10 +3507,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3665,7 +3665,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J18" t="n">
         <v>2.75</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5321,16 +5321,16 @@
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5861,10 +5861,10 @@
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -6025,19 +6025,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
         <v>3.2</v>
@@ -6046,7 +6046,7 @@
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
         <v>1.17</v>
@@ -6055,10 +6055,10 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S31" t="n">
         <v>1.29</v>
@@ -6097,7 +6097,7 @@
         <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
         <v>34</v>
@@ -6112,7 +6112,7 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6130,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
@@ -6169,7 +6169,7 @@
         <v>101</v>
       </c>
       <c r="BC31" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD31" t="n">
         <v>151</v>
@@ -6231,10 +6231,10 @@
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
         <v>2.25</v>
@@ -6419,10 +6419,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6589,10 +6589,10 @@
         <v>3.75</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -6783,10 +6783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1141,10 +1141,10 @@
         <v>2.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1681,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.75</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1845,7 +1845,7 @@
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -2039,13 +2039,13 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>3.75</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2403,22 +2403,22 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2597,7 +2597,7 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>2.15</v>
@@ -2609,7 +2609,7 @@
         <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V12" t="n">
         <v>2.25</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2764,7 +2764,7 @@
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2779,10 +2779,10 @@
         <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.22</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
@@ -2815,13 +2815,13 @@
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2833,13 +2833,13 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2848,13 +2848,13 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
         <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>51</v>
@@ -2878,7 +2878,7 @@
         <v>4.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2937,7 +2937,7 @@
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2973,7 +2973,7 @@
         <v>4.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V14" t="n">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
@@ -3507,10 +3507,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3665,7 +3665,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
         <v>2.75</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6213,7 +6213,7 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -6783,10 +6783,10 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S35" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,22 +765,22 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -947,22 +947,22 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1326,7 +1326,7 @@
         <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
@@ -1508,7 +1508,7 @@
         <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1857,13 +1857,13 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -2203,46 +2203,46 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L10" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="U10" t="n">
         <v>2.3</v>
@@ -2251,88 +2251,88 @@
         <v>1.59</v>
       </c>
       <c r="W10" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Y10" t="n">
         <v>8.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA10" t="n">
         <v>9.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>35</v>
       </c>
-      <c r="AI10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>40</v>
-      </c>
       <c r="AK10" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AR10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS10" t="n">
         <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX10" t="n">
         <v>90</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>100</v>
       </c>
       <c r="AY10" t="n">
         <v>70</v>
@@ -2403,13 +2403,13 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2609,7 +2609,7 @@
         <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
         <v>2.25</v>
@@ -2755,7 +2755,7 @@
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
         <v>2.75</v>
@@ -2937,7 +2937,7 @@
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2973,7 +2973,7 @@
         <v>4.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V14" t="n">
         <v>3</v>
@@ -3325,7 +3325,7 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
         <v>2.3</v>
@@ -3689,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R18" t="n">
         <v>2.7</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V19" t="n">
         <v>2.25</v>
@@ -4065,7 +4065,7 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V20" t="n">
         <v>2.1</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H21" t="n">
         <v>4.33</v>
       </c>
       <c r="I21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J21" t="n">
         <v>4.75</v>
@@ -4247,10 +4247,10 @@
         <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
@@ -4268,7 +4268,7 @@
         <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
         <v>19</v>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
@@ -4316,7 +4316,7 @@
         <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
@@ -4387,10 +4387,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
         <v>7.5</v>
@@ -4408,7 +4408,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
         <v>1.1</v>
@@ -4429,10 +4429,10 @@
         <v>4.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
         <v>12</v>
@@ -4441,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>10</v>
@@ -4453,10 +4453,10 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -4474,13 +4474,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>81</v>
       </c>
       <c r="AL22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4513,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>34</v>
@@ -4611,10 +4611,10 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5297,7 +5297,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
         <v>3.25</v>
@@ -5315,22 +5315,22 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6213,7 +6213,7 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -6604,7 +6604,7 @@
         <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,13 +765,13 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
@@ -965,22 +965,22 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,19 +1007,19 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>29</v>
@@ -1046,13 +1046,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -1064,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1129,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1326,7 +1326,7 @@
         <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
@@ -1508,7 +1508,7 @@
         <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1520,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -1857,13 +1857,13 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -1875,7 +1875,7 @@
         <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2039,34 +2039,34 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>12</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
         <v>7.5</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2230,7 +2230,7 @@
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2603,7 +2603,7 @@
         <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T12" t="n">
         <v>3.4</v>
@@ -2785,7 +2785,7 @@
         <v>2.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T13" t="n">
         <v>4</v>
@@ -2952,7 +2952,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
         <v>1.1</v>
@@ -2967,7 +2967,7 @@
         <v>3.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T14" t="n">
         <v>4.33</v>
@@ -3149,7 +3149,7 @@
         <v>2.4</v>
       </c>
       <c r="S15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T15" t="n">
         <v>3.5</v>
@@ -3325,7 +3325,7 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
         <v>2.3</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
@@ -3665,7 +3665,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J18" t="n">
         <v>2.75</v>
@@ -3689,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
         <v>2.7</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
         <v>2.25</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
@@ -4065,7 +4065,7 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
         <v>2.1</v>
@@ -4241,16 +4241,16 @@
         <v>2.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T21" t="n">
         <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
@@ -4396,10 +4396,10 @@
         <v>7.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K22" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
@@ -4423,13 +4423,13 @@
         <v>3.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T22" t="n">
         <v>4.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4605,16 +4605,16 @@
         <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T23" t="n">
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
@@ -4963,22 +4963,22 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5330,7 +5330,7 @@
         <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6354,7 +6354,7 @@
         <v>126</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -6604,7 +6604,7 @@
         <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S34" t="n">
         <v>1.5</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,13 +765,13 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -947,13 +947,13 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
         <v>3.2</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1129,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1687,13 +1687,13 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>1.88</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2224,13 +2224,13 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2603,7 +2603,7 @@
         <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
         <v>3.4</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
@@ -2764,13 +2764,13 @@
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2785,16 +2785,16 @@
         <v>2.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T13" t="n">
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
@@ -2815,13 +2815,13 @@
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2833,13 +2833,13 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2848,13 +2848,13 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>51</v>
@@ -2878,7 +2878,7 @@
         <v>4.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.63</v>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>1.1</v>
@@ -2967,7 +2967,7 @@
         <v>3.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T14" t="n">
         <v>4.33</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -3060,7 +3060,7 @@
         <v>4.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
@@ -3119,7 +3119,7 @@
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
         <v>2.4</v>
@@ -3128,13 +3128,13 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -3143,28 +3143,28 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S15" t="n">
         <v>1.25</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -3179,7 +3179,7 @@
         <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
@@ -3194,7 +3194,7 @@
         <v>101</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -3218,7 +3218,7 @@
         <v>9.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>29</v>
@@ -3230,7 +3230,7 @@
         <v>81</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU15" t="n">
         <v>7</v>
@@ -3251,10 +3251,10 @@
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC15" t="n">
         <v>301</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>2.75</v>
@@ -3310,7 +3310,7 @@
         <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3319,22 +3319,22 @@
         <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
         <v>1.53</v>
@@ -3346,10 +3346,10 @@
         <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -3379,31 +3379,31 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
@@ -3412,7 +3412,7 @@
         <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
         <v>7</v>
@@ -3421,7 +3421,7 @@
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
@@ -3430,13 +3430,13 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
         <v>351</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
         <v>4.2</v>
@@ -3665,7 +3665,7 @@
         <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
         <v>2.75</v>
@@ -4023,7 +4023,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
@@ -4241,7 +4241,7 @@
         <v>2.6</v>
       </c>
       <c r="S21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
         <v>3.75</v>
@@ -4396,10 +4396,10 @@
         <v>7.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K22" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
@@ -4423,7 +4423,7 @@
         <v>3.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T22" t="n">
         <v>4.33</v>
@@ -4605,7 +4605,7 @@
         <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.5</v>
@@ -4969,7 +4969,7 @@
         <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
@@ -5297,19 +5297,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
@@ -5327,10 +5327,10 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5339,10 +5339,10 @@
         <v>2.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5363,19 +5363,19 @@
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
         <v>6.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>67</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5393,19 +5393,19 @@
         <v>41</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
         <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
         <v>67</v>
@@ -5438,7 +5438,7 @@
         <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -6121,7 +6121,7 @@
         <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
         <v>4.75</v>
@@ -6225,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>1.36</v>
@@ -6237,10 +6237,10 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -6771,10 +6771,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -6825,10 +6825,10 @@
         <v>6.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1675,10 +1675,10 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
@@ -2815,13 +2815,13 @@
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2833,13 +2833,13 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2848,13 +2848,13 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
         <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>51</v>
@@ -2878,7 +2878,7 @@
         <v>4.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -3119,7 +3119,7 @@
         <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>2.4</v>
@@ -3128,7 +3128,7 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -3143,10 +3143,10 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.25</v>
@@ -3155,16 +3155,16 @@
         <v>3.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -3251,7 +3251,7 @@
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>101</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
         <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3325,10 +3325,10 @@
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.29</v>
@@ -3337,19 +3337,19 @@
         <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -3373,31 +3373,31 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
@@ -3406,7 +3406,7 @@
         <v>34</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
         <v>101</v>
@@ -3427,19 +3427,19 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3483,7 +3483,7 @@
         <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -3501,34 +3501,34 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3543,19 +3543,19 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3567,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP17" t="n">
         <v>19</v>
@@ -3591,10 +3591,10 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
         <v>8.5</v>
@@ -3624,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3695,10 +3695,10 @@
         <v>2.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
         <v>1.4</v>
@@ -3716,7 +3716,7 @@
         <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>15</v>
@@ -3728,7 +3728,7 @@
         <v>21</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
@@ -3740,19 +3740,19 @@
         <v>81</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
@@ -3764,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>34</v>
@@ -3776,13 +3776,13 @@
         <v>81</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW18" t="n">
         <v>5.5</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
@@ -3859,28 +3859,28 @@
         <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
         <v>1.57</v>
@@ -3889,7 +3889,7 @@
         <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3901,13 +3901,13 @@
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3922,13 +3922,13 @@
         <v>126</v>
       </c>
       <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>11</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>29</v>
@@ -3940,13 +3940,13 @@
         <v>26</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3955,13 +3955,13 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
@@ -3988,7 +3988,7 @@
         <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
         <v>2.3</v>
@@ -4038,7 +4038,7 @@
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4065,13 +4065,13 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>9</v>
@@ -4080,7 +4080,7 @@
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
         <v>13</v>
@@ -4101,10 +4101,10 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -4113,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
         <v>34</v>
@@ -4122,16 +4122,16 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4143,7 +4143,7 @@
         <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
@@ -4155,10 +4155,10 @@
         <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
         <v>81</v>
@@ -4208,7 +4208,7 @@
         <v>4.75</v>
       </c>
       <c r="H21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.57</v>
@@ -4217,43 +4217,43 @@
         <v>4.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
@@ -4268,22 +4268,22 @@
         <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
@@ -4298,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -4316,13 +4316,13 @@
         <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
         <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4343,7 +4343,7 @@
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB21" t="n">
         <v>81</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O22" t="n">
         <v>1.1</v>
@@ -4429,10 +4429,10 @@
         <v>4.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W22" t="n">
         <v>12</v>
@@ -4453,19 +4453,19 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH22" t="n">
         <v>29</v>
@@ -4474,13 +4474,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
         <v>81</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4495,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR22" t="n">
         <v>29</v>
@@ -4513,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX22" t="n">
         <v>34</v>
@@ -4522,7 +4522,7 @@
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA22" t="n">
         <v>101</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -5136,7 +5136,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5151,10 +5151,10 @@
         <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
         <v>1.62</v>
@@ -5178,7 +5178,7 @@
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
         <v>12</v>
@@ -5211,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
         <v>4.5</v>
@@ -5232,13 +5232,13 @@
         <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
@@ -5256,7 +5256,7 @@
         <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC26" t="n">
         <v>351</v>
@@ -5321,10 +5321,10 @@
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q27" t="n">
         <v>2.35</v>
@@ -5357,7 +5357,7 @@
         <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
         <v>34</v>
@@ -5402,7 +5402,7 @@
         <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -6049,10 +6049,10 @@
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q31" t="n">
         <v>1.53</v>
@@ -6172,7 +6172,7 @@
         <v>301</v>
       </c>
       <c r="BD31" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
@@ -6413,16 +6413,16 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1496,13 +1496,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
@@ -1675,10 +1675,10 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
@@ -2415,10 +2415,10 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2472,7 +2472,7 @@
         <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2526,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>351</v>
@@ -2767,10 +2767,10 @@
         <v>2.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2815,7 +2815,7 @@
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
         <v>8.5</v>
@@ -2863,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="n">
         <v>4</v>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW13" t="n">
         <v>4.5</v>
@@ -2884,13 +2884,13 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
         <v>251</v>
@@ -2952,13 +2952,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
         <v>1.33</v>
@@ -3501,22 +3501,22 @@
         <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
@@ -3549,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3567,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3594,7 +3594,7 @@
         <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>8.5</v>
@@ -3624,7 +3624,7 @@
         <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -3850,46 +3850,46 @@
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
         <v>3.25</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.2</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3907,7 +3907,7 @@
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
@@ -3919,13 +3919,13 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3943,10 +3943,10 @@
         <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3955,13 +3955,13 @@
         <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
@@ -3976,7 +3976,7 @@
         <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
         <v>51</v>
@@ -3988,7 +3988,7 @@
         <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -4208,52 +4208,52 @@
         <v>4.75</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I21" t="n">
         <v>1.57</v>
       </c>
       <c r="J21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
         <v>29</v>
@@ -4268,28 +4268,28 @@
         <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
@@ -4298,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>19</v>
@@ -4310,19 +4310,19 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4343,13 +4343,13 @@
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
         <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -4429,19 +4429,19 @@
         <v>4.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
         <v>12</v>
       </c>
       <c r="X22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y22" t="n">
         <v>9</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>10</v>
@@ -4456,16 +4456,16 @@
         <v>26</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH22" t="n">
         <v>29</v>
@@ -4474,13 +4474,13 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>81</v>
       </c>
       <c r="AL22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4495,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>29</v>
@@ -4522,7 +4522,7 @@
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA22" t="n">
         <v>101</v>
@@ -4587,22 +4587,22 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -5661,148 +5661,148 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="L29" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="V29" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W29" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB29" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG29" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AH29" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR29" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS29" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV29" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AY29" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BA29" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1490,13 +1490,13 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1517,10 +1517,10 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1541,13 +1541,13 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1586,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1601,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -3131,22 +3131,22 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
         <v>1.25</v>
@@ -3295,55 +3295,55 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.53</v>
       </c>
-      <c r="R16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
@@ -3352,19 +3352,19 @@
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
         <v>15</v>
       </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>17</v>
-      </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3373,22 +3373,22 @@
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
         <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
         <v>23</v>
@@ -3397,22 +3397,22 @@
         <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU16" t="n">
         <v>7</v>
@@ -3421,13 +3421,13 @@
         <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
@@ -3439,7 +3439,7 @@
         <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3498,7 +3498,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -4223,10 +4223,10 @@
         <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
@@ -4235,10 +4235,10 @@
         <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
         <v>1.25</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
         <v>1.73</v>
@@ -4408,7 +4408,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
         <v>1.1</v>
@@ -4417,10 +4417,10 @@
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R22" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S22" t="n">
         <v>1.2</v>
@@ -4438,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
@@ -4453,7 +4453,7 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
         <v>12</v>
@@ -4468,7 +4468,7 @@
         <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -4489,7 +4489,7 @@
         <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
@@ -4513,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>34</v>
@@ -4593,16 +4593,16 @@
         <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -6025,13 +6025,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -6067,10 +6067,10 @@
         <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W31" t="n">
         <v>12</v>
@@ -6091,7 +6091,7 @@
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
         <v>7.5</v>
@@ -6121,7 +6121,7 @@
         <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
         <v>4.75</v>
@@ -6225,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
         <v>1.36</v>
@@ -6237,10 +6237,10 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6413,16 +6413,16 @@
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>
@@ -6935,67 +6935,67 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L36" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="T36" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="U36" t="n">
         <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W36" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X36" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="n">
         <v>17</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>16</v>
       </c>
       <c r="AB36" t="n">
         <v>29</v>
@@ -7004,10 +7004,10 @@
         <v>8.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF36" t="n">
         <v>75</v>
@@ -7016,43 +7016,43 @@
         <v>600</v>
       </c>
       <c r="AH36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL36" t="n">
         <v>35</v>
       </c>
       <c r="AM36" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AO36" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR36" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS36" t="n">
         <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AU36" t="n">
         <v>7</v>
@@ -7061,16 +7061,16 @@
         <v>60</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AX36" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AY36" t="n">
         <v>26</v>
       </c>
       <c r="AZ36" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA36" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1341,7 +1341,7 @@
         <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1371,16 +1371,16 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1428,7 +1428,7 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>
@@ -1687,10 +1687,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
@@ -2940,10 +2940,10 @@
         <v>1.73</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L14" t="n">
         <v>2.2</v>
@@ -2952,7 +2952,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
@@ -2961,16 +2961,16 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U14" t="n">
         <v>1.36</v>
@@ -2979,13 +2979,13 @@
         <v>3</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>41</v>
@@ -3006,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
         <v>67</v>
@@ -3027,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
         <v>6.5</v>
@@ -3048,7 +3048,7 @@
         <v>81</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -3060,7 +3060,7 @@
         <v>4.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
@@ -4417,7 +4417,7 @@
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R22" t="n">
         <v>3.1</v>
@@ -4602,7 +4602,7 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -5861,13 +5861,13 @@
         <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
@@ -6043,13 +6043,13 @@
         <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P31" t="n">
         <v>5.5</v>
@@ -6225,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -6407,13 +6407,13 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -6762,7 +6762,7 @@
         <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2815,7 +2815,7 @@
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
         <v>8.5</v>
@@ -2863,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
         <v>4</v>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>4.5</v>
@@ -2884,13 +2884,13 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
         <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
         <v>251</v>
@@ -2952,7 +2952,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
@@ -3495,10 +3495,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3507,10 +3507,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3519,16 +3519,16 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
         <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3543,7 +3543,7 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>8</v>
@@ -4417,7 +4417,7 @@
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R22" t="n">
         <v>3.1</v>
@@ -4602,7 +4602,7 @@
         <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="J29" t="n">
         <v>4.2</v>
@@ -5676,31 +5676,31 @@
         <v>2.12</v>
       </c>
       <c r="L29" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S29" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U29" t="n">
         <v>1.78</v>
@@ -5709,10 +5709,10 @@
         <v>1.93</v>
       </c>
       <c r="W29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
@@ -5727,7 +5727,7 @@
         <v>40</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
         <v>6.7</v>
@@ -5736,7 +5736,7 @@
         <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG29" t="n">
         <v>500</v>
@@ -5745,13 +5745,13 @@
         <v>7.3</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
         <v>15</v>
@@ -5760,13 +5760,13 @@
         <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO29" t="n">
         <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="n">
         <v>110</v>
@@ -5775,28 +5775,28 @@
         <v>150</v>
       </c>
       <c r="AS29" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV29" t="n">
         <v>70</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA29" t="n">
         <v>70</v>
@@ -5846,37 +5846,37 @@
         <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K30" t="n">
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5885,16 +5885,16 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -5915,19 +5915,19 @@
         <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH30" t="n">
         <v>12</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>13</v>
@@ -5936,10 +5936,10 @@
         <v>41</v>
       </c>
       <c r="AL30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM30" t="n">
         <v>34</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5975,7 +5975,7 @@
         <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>67</v>
@@ -6043,13 +6043,13 @@
         <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P31" t="n">
         <v>5.5</v>
@@ -6225,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -6407,13 +6407,13 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
         <v>15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -953,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>4.2</v>
@@ -2397,7 +2397,7 @@
         <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
         <v>4.33</v>
@@ -2427,13 +2427,13 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>10</v>
@@ -2445,10 +2445,10 @@
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2466,10 +2466,10 @@
         <v>126</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2487,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>26</v>
@@ -2499,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
         <v>3.5</v>
@@ -2526,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>351</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -6771,10 +6771,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -6938,10 +6938,10 @@
         <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
         <v>2.6</v>
@@ -6950,7 +6950,7 @@
         <v>2.07</v>
       </c>
       <c r="L36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6962,7 +6962,7 @@
         <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q36" t="n">
         <v>1.98</v>
@@ -6977,10 +6977,10 @@
         <v>2.55</v>
       </c>
       <c r="U36" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W36" t="n">
         <v>7</v>
@@ -6998,19 +6998,19 @@
         <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC36" t="n">
         <v>8.75</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE36" t="n">
         <v>14.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG36" t="n">
         <v>600</v>
@@ -7019,7 +7019,7 @@
         <v>9.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>12</v>
@@ -7040,43 +7040,43 @@
         <v>10.25</v>
       </c>
       <c r="AP36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ36" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS36" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU36" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AV36" t="n">
         <v>60</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AX36" t="n">
         <v>19.5</v>
       </c>
       <c r="AY36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ36" t="n">
         <v>100</v>
       </c>
       <c r="BA36" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB36" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC36" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.3</v>
@@ -4038,7 +4038,7 @@
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
@@ -4065,13 +4065,13 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
         <v>9</v>
@@ -4080,7 +4080,7 @@
         <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
         <v>13</v>
@@ -4101,10 +4101,10 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -4113,7 +4113,7 @@
         <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>34</v>
@@ -4122,16 +4122,16 @@
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
         <v>41</v>
@@ -4143,7 +4143,7 @@
         <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
@@ -4155,10 +4155,10 @@
         <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA20" t="n">
         <v>81</v>
@@ -4229,10 +4229,10 @@
         <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.53</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
         <v>5.5</v>
@@ -4396,13 +4396,13 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
         <v>2.88</v>
       </c>
       <c r="L22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
@@ -4438,13 +4438,13 @@
         <v>12</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
         <v>10</v>
@@ -4456,7 +4456,7 @@
         <v>23</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -4516,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="AX22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4525,10 +4525,10 @@
         <v>101</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC22" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>3.6</v>
@@ -789,16 +789,16 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,13 +825,13 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -846,22 +846,22 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1672,7 +1672,7 @@
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1693,10 +1693,10 @@
         <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1714,7 +1714,7 @@
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1750,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>26</v>
@@ -1774,13 +1774,13 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW7" t="n">
         <v>4.75</v>
@@ -2230,7 +2230,7 @@
         <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2961,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S14" t="n">
         <v>1.18</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L29" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -5700,7 +5700,7 @@
         <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U29" t="n">
         <v>1.78</v>
@@ -5715,7 +5715,7 @@
         <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
         <v>55</v>
@@ -5730,76 +5730,76 @@
         <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM29" t="n">
         <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR29" t="n">
         <v>150</v>
       </c>
       <c r="AS29" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
         <v>70</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY29" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB29" t="n">
         <v>250</v>
@@ -5996,7 +5996,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>z5Rnd77t</t>
+          <t>Khiwx4MO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,169 +6016,169 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R31" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
         <v>9.5</v>
       </c>
       <c r="Z31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP31" t="n">
         <v>23</v>
       </c>
-      <c r="AA31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ31" t="n">
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC31" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BD31" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YeuL0maP</t>
+          <t>z5Rnd77t</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6198,169 +6198,169 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T32" t="n">
         <v>3.5</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA32" t="n">
         <v>17</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AB32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH32" t="n">
         <v>13</v>
       </c>
-      <c r="Z32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA32" t="n">
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK32" t="n">
         <v>29</v>
       </c>
-      <c r="AB32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE32" t="n">
+      <c r="AL32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX32" t="n">
         <v>15</v>
       </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR32" t="n">
+      <c r="AY32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="n">
         <v>101</v>
       </c>
-      <c r="AS32" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>201</v>
-      </c>
       <c r="BC32" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD32" t="n">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dpqUaVDI</t>
+          <t>YeuL0maP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,164 +6370,164 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>5.25</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
         <v>15</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>19</v>
-      </c>
       <c r="AF33" t="n">
         <v>51</v>
       </c>
       <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS33" t="n">
         <v>251</v>
       </c>
-      <c r="AH33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>126</v>
-      </c>
       <c r="AT33" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU33" t="n">
         <v>8.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AX33" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY33" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB33" t="n">
         <v>201</v>
@@ -6536,13 +6536,13 @@
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>xjV6yHjC</t>
+          <t>dpqUaVDI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6557,138 +6557,138 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>1.53</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="R34" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="S34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
         <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH34" t="n">
         <v>15</v>
       </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI34" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL34" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM34" t="n">
         <v>41</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR34" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
         <v>8.5</v>
@@ -6697,34 +6697,34 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC34" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>276</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tQvQcpgg</t>
+          <t>xjV6yHjC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,105 +6739,105 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.1</v>
       </c>
-      <c r="J35" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L35" t="n">
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T35" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z35" t="n">
         <v>21</v>
       </c>
       <c r="AA35" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH35" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -6846,34 +6846,34 @@
         <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6882,10 +6882,10 @@
         <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
         <v>51</v>
@@ -6894,19 +6894,19 @@
         <v>81</v>
       </c>
       <c r="BB35" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD35" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xdM89Vcl</t>
+          <t>tQvQcpgg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>11</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
         <v>3.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L36" t="n">
-        <v>4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.82</v>
-      </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
         <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>12</v>
       </c>
       <c r="AK36" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="AO36" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AP36" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AX36" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AY36" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ36" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA36" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC36" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD36" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>O6P13Z3b</t>
+          <t>xdM89Vcl</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="V37" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AE37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="n">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="AH37" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="AI37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AM37" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY37" t="n">
         <v>26</v>
       </c>
-      <c r="AQ37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR37" t="n">
+      <c r="AZ37" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC37" t="n">
         <v>81</v>
       </c>
-      <c r="AS37" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>51</v>
-      </c>
       <c r="BD37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dKN91DYA</t>
+          <t>O6P13Z3b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7290,100 +7290,100 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R38" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T38" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.73</v>
       </c>
-      <c r="V38" t="n">
-        <v>2</v>
-      </c>
       <c r="W38" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="n">
         <v>17</v>
       </c>
-      <c r="AB38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE38" t="n">
+      <c r="AF38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI38" t="n">
         <v>15</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>17</v>
       </c>
       <c r="AJ38" t="n">
         <v>12</v>
@@ -7392,60 +7392,242 @@
         <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="n">
         <v>4.33</v>
       </c>
       <c r="AO38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX38" t="n">
         <v>19</v>
       </c>
       <c r="AY38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dKN91DYA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>11</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB39" t="n">
         <v>26</v>
       </c>
-      <c r="AZ38" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA38" t="n">
+      <c r="AC39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA39" t="n">
         <v>81</v>
       </c>
-      <c r="BB38" t="n">
+      <c r="BB39" t="n">
         <v>151</v>
       </c>
-      <c r="BC38" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD38" t="n">
+      <c r="BC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD39" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -938,7 +938,7 @@
         <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -965,10 +965,10 @@
         <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>5.5</v>
@@ -1010,10 +1010,10 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2391,16 +2391,16 @@
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2427,10 +2427,10 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
         <v>10</v>
@@ -2448,7 +2448,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2475,13 +2475,13 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2493,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2523,7 +2523,7 @@
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>126</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>4.33</v>
       </c>
       <c r="I21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
@@ -4220,7 +4220,7 @@
         <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -4229,10 +4229,10 @@
         <v>17</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.53</v>
@@ -4247,10 +4247,10 @@
         <v>3.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
@@ -4259,19 +4259,19 @@
         <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
         <v>51</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
         <v>8.5</v>
@@ -4283,31 +4283,31 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>12</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP21" t="n">
         <v>26</v>
@@ -4331,10 +4331,10 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY21" t="n">
         <v>15</v>
@@ -4587,10 +4587,10 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -4599,10 +4599,10 @@
         <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -977,7 +977,7 @@
         <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1687,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
         <v>2.05</v>
@@ -1699,7 +1699,7 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -2063,10 +2063,10 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
         <v>12</v>
@@ -2227,7 +2227,7 @@
         <v>14.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
         <v>4.25</v>
@@ -2245,10 +2245,10 @@
         <v>3.42</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
         <v>5.9</v>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
         <v>2.4</v>
@@ -2591,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2952,7 +2952,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
@@ -2961,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.18</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
@@ -3495,10 +3495,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -4599,10 +4599,10 @@
         <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -5115,13 +5115,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -5130,13 +5130,13 @@
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5187,7 +5187,7 @@
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5196,7 +5196,7 @@
         <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5211,7 +5211,7 @@
         <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
         <v>4.5</v>
@@ -5297,28 +5297,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -5354,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>19</v>
@@ -5366,7 +5366,7 @@
         <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
@@ -5378,7 +5378,7 @@
         <v>1250</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5387,7 +5387,7 @@
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5426,7 +5426,7 @@
         <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
         <v>2.63</v>
@@ -5873,10 +5873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5903,7 +5903,7 @@
         <v>17</v>
       </c>
       <c r="AA30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="n">
         <v>26</v>
@@ -5924,7 +5924,7 @@
         <v>201</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>19</v>
@@ -5951,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
         <v>51</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>26</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.7</v>
@@ -6222,7 +6222,7 @@
         <v>2.4</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6318,7 +6318,7 @@
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS32" t="n">
         <v>101</v>
@@ -6354,7 +6354,7 @@
         <v>301</v>
       </c>
       <c r="BD32" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33">
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>2</v>
@@ -7350,10 +7350,10 @@
         <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
@@ -7368,10 +7368,10 @@
         <v>7.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="n">
         <v>67</v>
@@ -7398,7 +7398,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO38" t="n">
         <v>13</v>
@@ -7410,7 +7410,7 @@
         <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
         <v>201</v>
@@ -7428,10 +7428,10 @@
         <v>5</v>
       </c>
       <c r="AX38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
         <v>67</v>
@@ -7440,7 +7440,7 @@
         <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1687,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
         <v>2.05</v>
@@ -1699,7 +1699,7 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -2063,10 +2063,10 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>12</v>
@@ -2227,7 +2227,7 @@
         <v>14.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
         <v>4.25</v>
@@ -2245,10 +2245,10 @@
         <v>3.42</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
         <v>5.9</v>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>2.4</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
@@ -3889,16 +3889,16 @@
         <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
         <v>17</v>
@@ -3925,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3937,13 +3937,13 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
         <v>4.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>21</v>
@@ -3979,7 +3979,7 @@
         <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
         <v>126</v>
@@ -4396,10 +4396,10 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K22" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
@@ -4751,148 +4751,148 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.7</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
         <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO24" t="n">
         <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="BA24" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
         <v>11</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
@@ -6225,13 +6225,13 @@
         <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P32" t="n">
         <v>5.5</v>
@@ -7320,7 +7320,7 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1317,10 +1317,10 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -2227,7 +2227,7 @@
         <v>14.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
         <v>4.25</v>
@@ -2245,10 +2245,10 @@
         <v>3.42</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
         <v>5.9</v>
@@ -3319,16 +3319,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>1.3</v>
@@ -3507,10 +3507,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -4396,10 +4396,10 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L22" t="n">
         <v>6</v>
@@ -4417,10 +4417,10 @@
         <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S22" t="n">
         <v>1.2</v>
@@ -5315,10 +5315,10 @@
         <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -5861,22 +5861,22 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
         <v>3.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -6225,13 +6225,13 @@
         <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P32" t="n">
         <v>5.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -950,13 +950,13 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
         <v>2.3</v>
@@ -3495,10 +3495,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3507,10 +3507,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3534,7 +3534,7 @@
         <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3546,7 +3546,7 @@
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3555,7 +3555,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3591,7 +3591,7 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>3</v>
@@ -3606,13 +3606,13 @@
         <v>7.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY17" t="n">
         <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA17" t="n">
         <v>126</v>
@@ -5115,16 +5115,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5136,7 +5136,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5163,13 +5163,13 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
@@ -5187,7 +5187,7 @@
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5202,10 +5202,10 @@
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>21</v>
@@ -5214,7 +5214,7 @@
         <v>26</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
@@ -5241,7 +5241,7 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
@@ -5250,13 +5250,13 @@
         <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
         <v>351</v>
@@ -7138,7 +7138,7 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>9.85</v>
       </c>
       <c r="O37" t="n">
         <v>1.32</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -2227,7 +2227,7 @@
         <v>14.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
         <v>4.25</v>
@@ -2245,10 +2245,10 @@
         <v>3.42</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
         <v>5.9</v>
@@ -2415,10 +2415,10 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -3325,10 +3325,10 @@
         <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
         <v>1.3</v>
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
         <v>5.5</v>
@@ -4396,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K22" t="n">
         <v>2.88</v>
@@ -4408,7 +4408,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O22" t="n">
         <v>1.1</v>
@@ -4444,7 +4444,7 @@
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
         <v>10</v>
@@ -4453,10 +4453,10 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
@@ -4468,7 +4468,7 @@
         <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -4516,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="AX22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
@@ -4525,10 +4525,10 @@
         <v>101</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
         <v>301</v>
@@ -5661,145 +5661,145 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
         <v>2.15</v>
       </c>
       <c r="L29" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R29" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U29" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V29" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB29" t="n">
         <v>35</v>
       </c>
-      <c r="AB29" t="n">
-        <v>40</v>
-      </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG29" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AQ29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR29" t="n">
         <v>120</v>
       </c>
-      <c r="AR29" t="n">
-        <v>150</v>
-      </c>
       <c r="AS29" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.7</v>
+        <v>4.05</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY29" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="BA29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB29" t="n">
         <v>250</v>
@@ -6407,10 +6407,10 @@
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
@@ -6419,10 +6419,10 @@
         <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -789,25 +789,25 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,16 +825,16 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -846,22 +846,22 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,19 +971,19 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>5.5</v>
@@ -1007,16 +1007,16 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1037,10 +1037,10 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1052,7 +1052,7 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -1064,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1153,16 +1153,16 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>501</v>
@@ -1195,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1222,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1231,7 +1231,7 @@
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1246,13 +1246,13 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1329,16 +1329,16 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1350,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1374,10 +1374,10 @@
         <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1478,7 +1478,7 @@
         <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
@@ -1490,13 +1490,13 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1511,7 +1511,7 @@
         <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1541,13 +1541,13 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1586,7 +1586,7 @@
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1601,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1657,76 +1657,76 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.05</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1735,10 +1735,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1750,37 +1750,37 @@
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
         <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>4.75</v>
@@ -1789,16 +1789,16 @@
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1869,13 +1869,13 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -1887,16 +1887,16 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1923,7 +1923,7 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.5</v>
@@ -1941,16 +1941,16 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1965,16 +1965,16 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
@@ -2036,7 +2036,7 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2051,13 +2051,13 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T9" t="n">
         <v>2.75</v>
@@ -2069,7 +2069,7 @@
         <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2087,10 +2087,10 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,7 +2099,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
         <v>7.5</v>
@@ -2111,7 +2111,7 @@
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2120,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
@@ -2203,34 +2203,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H10" t="n">
         <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K10" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L10" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>14.3</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2239,100 +2239,100 @@
         <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
-        <v>3.42</v>
+        <v>3.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="W10" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AI10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>90</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>110</v>
-      </c>
       <c r="AW10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AY10" t="n">
         <v>70</v>
@@ -2388,16 +2388,16 @@
         <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>4.5</v>
@@ -2406,19 +2406,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2427,16 +2427,16 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2445,13 +2445,13 @@
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>8</v>
@@ -2463,10 +2463,10 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2475,10 +2475,10 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2490,16 +2490,16 @@
         <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
         <v>3.5</v>
@@ -2517,7 +2517,7 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
@@ -2526,7 +2526,7 @@
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>351</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2609,31 +2609,31 @@
         <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2642,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
         <v>126</v>
@@ -2657,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
         <v>21</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
@@ -2809,19 +2809,19 @@
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>29</v>
@@ -2833,13 +2833,13 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2848,13 +2848,13 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>51</v>
@@ -2875,10 +2875,10 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2931,61 +2931,61 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="T14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>41</v>
@@ -2997,28 +2997,28 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
         <v>17</v>
@@ -3027,7 +3027,7 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
         <v>6.5</v>
@@ -3036,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3045,10 +3045,10 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -3057,13 +3057,13 @@
         <v>34</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3075,7 +3075,7 @@
         <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3113,88 +3113,88 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>23</v>
@@ -3206,19 +3206,19 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>29</v>
@@ -3227,13 +3227,13 @@
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
@@ -3242,22 +3242,22 @@
         <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
         <v>151</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8IRE403n</t>
+          <t>ANepkL3a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,169 +3286,169 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
         <v>15</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W16" t="n">
-        <v>11</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
-      </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ANepkL3a</t>
+          <t>lEflluJ5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,169 +3468,169 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P17" t="n">
         <v>6</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
       </c>
       <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
         <v>29</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
         <v>17</v>
       </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
       </c>
       <c r="AS17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD17" t="n">
         <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lEflluJ5</t>
+          <t>ryfhmaYB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,100 +3650,100 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
         <v>3</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>19</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
         <v>11</v>
       </c>
-      <c r="AF18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>17</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
@@ -3752,67 +3752,67 @@
         <v>34</v>
       </c>
       <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
         <v>21</v>
       </c>
-      <c r="AM18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ryfhmaYB</t>
+          <t>dvbdnJmI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,31 +3832,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3871,37 +3871,37 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
         <v>9.5</v>
       </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3910,10 +3910,10 @@
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
@@ -3922,40 +3922,40 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP19" t="n">
         <v>17</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AQ19" t="n">
         <v>29</v>
       </c>
-      <c r="AL19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
         <v>3.25</v>
@@ -3964,37 +3964,37 @@
         <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
         <v>126</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dvbdnJmI</t>
+          <t>v3m1ow3O</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,85 +4014,85 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>5.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.22</v>
       </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD20" t="n">
         <v>9</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4104,70 +4104,70 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>7.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB20" t="n">
         <v>81</v>
       </c>
-      <c r="BB20" t="n">
-        <v>151</v>
-      </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>v3m1ow3O</t>
+          <t>Ign5pcIU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,85 +4196,85 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.53</v>
       </c>
-      <c r="J21" t="n">
-        <v>5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>17</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
         <v>19</v>
       </c>
-      <c r="X21" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
       <c r="AC21" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4283,46 +4283,46 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4331,25 +4331,25 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
         <v>151</v>
@@ -4358,7 +4358,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ign5pcIU</t>
+          <t>8IRE403n</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4378,55 +4378,55 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>2.63</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -4435,31 +4435,31 @@
         <v>2.25</v>
       </c>
       <c r="W22" t="n">
+        <v>11</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
         <v>12</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -4468,70 +4468,70 @@
         <v>126</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
         <v>21</v>
       </c>
-      <c r="AK22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
         <v>15</v>
       </c>
-      <c r="AR22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>34</v>
-      </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>151</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
         <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -4593,28 +4593,28 @@
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T23" t="n">
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4623,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
@@ -4632,10 +4632,10 @@
         <v>23</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
@@ -4653,28 +4653,28 @@
         <v>7.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -4683,7 +4683,7 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
         <v>2.5</v>
@@ -4695,7 +4695,7 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX23" t="n">
         <v>17</v>
@@ -4710,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -4781,22 +4781,22 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T24" t="n">
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4805,19 +4805,19 @@
         <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
         <v>23</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
         <v>6</v>
@@ -4841,7 +4841,7 @@
         <v>11</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4850,10 +4850,10 @@
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4865,7 +4865,7 @@
         <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
         <v>2.5</v>
@@ -4877,10 +4877,10 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
@@ -4892,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4957,19 +4957,19 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
@@ -4981,10 +4981,10 @@
         <v>1.95</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -5020,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>41</v>
@@ -5035,7 +5035,7 @@
         <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
@@ -5062,7 +5062,7 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5139,16 +5139,16 @@
         <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5157,25 +5157,25 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
         <v>26</v>
@@ -5187,7 +5187,7 @@
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5196,28 +5196,28 @@
         <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5241,22 +5241,22 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC26" t="n">
         <v>351</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -5312,19 +5312,19 @@
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
         <v>2.35</v>
@@ -5339,19 +5339,19 @@
         <v>2.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
         <v>17</v>
@@ -5363,13 +5363,13 @@
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>67</v>
@@ -5381,7 +5381,7 @@
         <v>9.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
@@ -5393,7 +5393,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
         <v>3.75</v>
@@ -5423,7 +5423,7 @@
         <v>67</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5438,7 +5438,7 @@
         <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5527,10 +5527,10 @@
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -5539,7 +5539,7 @@
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB28" t="n">
         <v>26</v>
@@ -5560,7 +5560,7 @@
         <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>19</v>
@@ -5587,7 +5587,7 @@
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5608,10 +5608,10 @@
         <v>5.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
         <v>67</v>
@@ -5661,148 +5661,148 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="K29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L29" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S29" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T29" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="U29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W29" t="n">
-        <v>9.75</v>
+        <v>11.75</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AB29" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG29" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AR29" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS29" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV29" t="n">
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="AX29" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AY29" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BA29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BB29" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5846,37 +5846,37 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5885,13 +5885,13 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>9.5</v>
@@ -5906,22 +5906,22 @@
         <v>17</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
@@ -5939,7 +5939,7 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
         <v>4</v>
@@ -5972,10 +5972,10 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>67</v>
@@ -6207,22 +6207,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6231,16 +6231,16 @@
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S32" t="n">
         <v>1.29</v>
@@ -6249,10 +6249,10 @@
         <v>3.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W32" t="n">
         <v>12</v>
@@ -6273,10 +6273,10 @@
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
@@ -6300,7 +6300,7 @@
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6312,13 +6312,13 @@
         <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
         <v>101</v>
@@ -6351,7 +6351,7 @@
         <v>101</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6389,64 +6389,64 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U33" t="n">
         <v>2</v>
       </c>
-      <c r="L33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
         <v>13</v>
       </c>
       <c r="Z33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="n">
         <v>29</v>
@@ -6455,19 +6455,19 @@
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
         <v>6</v>
       </c>
       <c r="AE33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG33" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH33" t="n">
         <v>6.5</v>
@@ -6476,7 +6476,7 @@
         <v>10</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -6491,10 +6491,10 @@
         <v>5</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ33" t="n">
         <v>67</v>
@@ -6503,10 +6503,10 @@
         <v>101</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU33" t="n">
         <v>8.5</v>
@@ -6515,7 +6515,7 @@
         <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX33" t="n">
         <v>13</v>
@@ -6524,19 +6524,19 @@
         <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC33" t="n">
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -6571,46 +6571,46 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
         <v>1.91</v>
@@ -6619,46 +6619,46 @@
         <v>1.91</v>
       </c>
       <c r="W34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
         <v>12</v>
       </c>
-      <c r="AB34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH34" t="n">
         <v>13</v>
       </c>
-      <c r="AD34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>15</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>17</v>
       </c>
       <c r="AK34" t="n">
         <v>51</v>
@@ -6673,13 +6673,13 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR34" t="n">
         <v>41</v>
@@ -6688,19 +6688,19 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6709,7 +6709,7 @@
         <v>101</v>
       </c>
       <c r="BA34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
@@ -6718,7 +6718,7 @@
         <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
         <v>3.2</v>
@@ -6771,10 +6771,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -6804,13 +6804,13 @@
         <v>7</v>
       </c>
       <c r="X35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y35" t="n">
         <v>10</v>
       </c>
-      <c r="Y35" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA35" t="n">
         <v>21</v>
@@ -6846,7 +6846,7 @@
         <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY35" t="n">
         <v>29</v>
@@ -6894,7 +6894,7 @@
         <v>81</v>
       </c>
       <c r="BB35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC35" t="n">
         <v>276</v>
@@ -6935,19 +6935,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
         <v>3.75</v>
@@ -6968,7 +6968,7 @@
         <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6989,16 +6989,16 @@
         <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z36" t="n">
         <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
         <v>10</v>
@@ -7007,10 +7007,10 @@
         <v>6.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="n">
         <v>201</v>
@@ -7019,10 +7019,10 @@
         <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK36" t="n">
         <v>34</v>
@@ -7117,55 +7117,55 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>9.85</v>
+        <v>8.9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.78</v>
       </c>
-      <c r="V37" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W37" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="X37" t="n">
         <v>9</v>
@@ -7174,58 +7174,58 @@
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA37" t="n">
         <v>17</v>
       </c>
-      <c r="AA37" t="n">
-        <v>16</v>
-      </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH37" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
         <v>20</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL37" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN37" t="n">
         <v>3.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP37" t="n">
         <v>18</v>
       </c>
       <c r="AQ37" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR37" t="n">
         <v>65</v>
@@ -7234,31 +7234,31 @@
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AU37" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV37" t="n">
         <v>60</v>
       </c>
       <c r="AW37" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX37" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ37" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA37" t="n">
         <v>150</v>
       </c>
       <c r="BB37" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
@@ -7481,22 +7481,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -7556,13 +7556,13 @@
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="n">
         <v>201</v>
       </c>
       <c r="AH39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI39" t="n">
         <v>17</v>
@@ -7583,7 +7583,7 @@
         <v>4.33</v>
       </c>
       <c r="AO39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,31 +789,31 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.8</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -822,13 +822,13 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -861,13 +861,13 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,7 +1126,7 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1237,10 +1237,10 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
@@ -1311,22 +1311,22 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1493,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>2.75</v>
@@ -1511,7 +1511,7 @@
         <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
         <v>2.5</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1693,7 +1693,7 @@
         <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
         <v>2.75</v>
@@ -1857,10 +1857,10 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1875,7 +1875,7 @@
         <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
         <v>2.75</v>
@@ -2021,55 +2021,55 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2084,28 +2084,28 @@
         <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -2117,16 +2117,16 @@
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>67</v>
@@ -2135,13 +2135,13 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2162,7 +2162,7 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="K10" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="L10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -2230,7 +2230,7 @@
         <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2245,16 +2245,16 @@
         <v>3.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
@@ -2266,76 +2266,76 @@
         <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK10" t="n">
         <v>600</v>
       </c>
       <c r="AL10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AP10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AR10" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW10" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AY10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AZ10" t="n">
         <v>500</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
@@ -2809,7 +2809,7 @@
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
         <v>23</v>
@@ -2833,7 +2833,7 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
         <v>9</v>
@@ -3155,7 +3155,7 @@
         <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
         <v>2.2</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3337,10 +3337,10 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
@@ -3519,7 +3519,7 @@
         <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
         <v>2.75</v>
@@ -3683,19 +3683,19 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
@@ -3871,13 +3871,13 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
         <v>3.25</v>
@@ -4029,7 +4029,7 @@
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -4053,13 +4053,13 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
         <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T20" t="n">
         <v>3.75</v>
@@ -4092,7 +4092,7 @@
         <v>19</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4104,7 +4104,7 @@
         <v>151</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI20" t="n">
         <v>9</v>
@@ -4229,19 +4229,19 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
         <v>3.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="T21" t="n">
         <v>4.5</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
         <v>1.2</v>
@@ -4420,10 +4420,10 @@
         <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T22" t="n">
         <v>3.25</v>
@@ -4438,13 +4438,13 @@
         <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
         <v>19</v>
@@ -4507,16 +4507,16 @@
         <v>3.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
         <v>41</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -4534,7 +4534,7 @@
         <v>351</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
@@ -4602,10 +4602,10 @@
         <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.5</v>
@@ -4784,10 +4784,10 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
         <v>2.5</v>
@@ -4963,13 +4963,13 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
@@ -5121,10 +5121,10 @@
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5139,16 +5139,16 @@
         <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -5157,13 +5157,13 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
         <v>12</v>
@@ -5178,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
         <v>12</v>
@@ -5187,7 +5187,7 @@
         <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5318,7 +5318,7 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -5327,7 +5327,7 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
@@ -5661,37 +5661,37 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.18</v>
       </c>
       <c r="L29" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
         <v>1.95</v>
@@ -5709,31 +5709,31 @@
         <v>2.05</v>
       </c>
       <c r="W29" t="n">
+        <v>11</v>
+      </c>
+      <c r="X29" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y29" t="n">
         <v>11.75</v>
       </c>
-      <c r="X29" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>13</v>
-      </c>
       <c r="Z29" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB29" t="n">
         <v>35</v>
       </c>
-      <c r="AB29" t="n">
-        <v>37</v>
-      </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF29" t="n">
         <v>60</v>
@@ -5742,64 +5742,64 @@
         <v>400</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR29" t="n">
         <v>120</v>
       </c>
-      <c r="AR29" t="n">
-        <v>150</v>
-      </c>
       <c r="AS29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT29" t="n">
         <v>2.82</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV29" t="n">
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AY29" t="n">
         <v>17.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB29" t="n">
         <v>200</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6249,7 +6249,7 @@
         <v>3.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V32" t="n">
         <v>2.5</v>
@@ -6258,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>9.5</v>
@@ -6276,7 +6276,7 @@
         <v>17</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
@@ -6300,7 +6300,7 @@
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6312,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6351,7 +6351,7 @@
         <v>101</v>
       </c>
       <c r="BC32" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
         <v>8.5</v>
@@ -6536,7 +6536,7 @@
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6601,10 +6601,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6795,10 +6795,10 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W35" t="n">
         <v>7</v>
@@ -6944,7 +6944,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
         <v>2.1</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6977,7 +6977,7 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -7135,10 +7135,10 @@
         <v>4.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>8.9</v>
+        <v>8.85</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H38" t="n">
         <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
         <v>2</v>
@@ -7320,7 +7320,7 @@
         <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -7344,16 +7344,16 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
@@ -7398,7 +7398,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO38" t="n">
         <v>13</v>
@@ -7410,7 +7410,7 @@
         <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS38" t="n">
         <v>201</v>
@@ -7428,7 +7428,7 @@
         <v>5</v>
       </c>
       <c r="AX38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY38" t="n">
         <v>34</v>
@@ -7440,7 +7440,7 @@
         <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
         <v>2.3</v>
@@ -1129,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1508,7 +1508,7 @@
         <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1857,13 +1857,13 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
         <v>2.5</v>
@@ -2057,10 +2057,10 @@
         <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
         <v>1.67</v>
@@ -2069,7 +2069,7 @@
         <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2087,19 +2087,19 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
         <v>8.5</v>
@@ -2111,7 +2111,7 @@
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2138,7 +2138,7 @@
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2403,13 +2403,13 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
         <v>4.5</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2791,40 +2791,40 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
         <v>19</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
         <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
         <v>81</v>
@@ -2833,16 +2833,16 @@
         <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2851,7 +2851,7 @@
         <v>6.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
@@ -2872,22 +2872,22 @@
         <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB13" t="n">
         <v>67</v>
@@ -2949,10 +2949,10 @@
         <v>2.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" t="n">
         <v>1.11</v>
@@ -3125,7 +3125,7 @@
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
@@ -3495,19 +3495,19 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
         <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R17" t="n">
         <v>2.7</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3859,13 +3859,13 @@
         <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -4041,13 +4041,13 @@
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
         <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
         <v>5.5</v>
@@ -4229,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P21" t="n">
         <v>7</v>
@@ -4405,16 +4405,16 @@
         <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
         <v>1.67</v>
@@ -4602,7 +4602,7 @@
         <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -5124,7 +5124,7 @@
         <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -5315,10 +5315,10 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -5327,7 +5327,7 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
@@ -5345,16 +5345,16 @@
         <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>19</v>
@@ -5363,7 +5363,7 @@
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5372,7 +5372,7 @@
         <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
         <v>1250</v>
@@ -5390,16 +5390,16 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>26</v>
@@ -5426,7 +5426,7 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5435,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
         <v>301</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5661,37 +5661,37 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.55</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="K29" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L29" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
         <v>1.95</v>
@@ -5700,7 +5700,7 @@
         <v>1.38</v>
       </c>
       <c r="T29" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U29" t="n">
         <v>1.7</v>
@@ -5709,34 +5709,34 @@
         <v>2.05</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
         <v>35</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE29" t="n">
         <v>13.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG29" t="n">
         <v>400</v>
@@ -5745,40 +5745,40 @@
         <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM29" t="n">
         <v>24</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR29" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS29" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU29" t="n">
         <v>7.1</v>
@@ -5787,7 +5787,7 @@
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AX29" t="n">
         <v>9.75</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -6222,7 +6222,7 @@
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6237,7 +6237,7 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R32" t="n">
         <v>2.35</v>
@@ -6255,7 +6255,7 @@
         <v>2.5</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -6279,7 +6279,7 @@
         <v>7.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
@@ -6300,7 +6300,7 @@
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6312,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6351,7 +6351,7 @@
         <v>101</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6422,7 +6422,7 @@
         <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
         <v>1.53</v>
@@ -6795,10 +6795,10 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
         <v>7</v>
@@ -6977,7 +6977,7 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.3</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1129,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1311,22 +1311,22 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1493,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>2.75</v>
@@ -1508,7 +1508,7 @@
         <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1857,13 +1857,13 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2027,7 +2027,7 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2403,13 +2403,13 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>4.5</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J13" t="n">
         <v>4.33</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2797,22 +2797,22 @@
         <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2821,19 +2821,19 @@
         <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2848,7 +2848,7 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2857,10 +2857,10 @@
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
         <v>101</v>
@@ -2878,13 +2878,13 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>34</v>
@@ -2961,10 +2961,10 @@
         <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R14" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="S14" t="n">
         <v>1.22</v>
@@ -3125,7 +3125,7 @@
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
@@ -3143,7 +3143,7 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>2.15</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3337,16 +3337,16 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -3382,7 +3382,7 @@
         <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>67</v>
@@ -3424,13 +3424,13 @@
         <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA16" t="n">
         <v>126</v>
@@ -3495,13 +3495,13 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
         <v>6</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3859,13 +3859,13 @@
         <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -4038,25 +4038,25 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.25</v>
@@ -4065,13 +4065,13 @@
         <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
         <v>34</v>
@@ -4080,13 +4080,13 @@
         <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA20" t="n">
         <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
         <v>19</v>
@@ -4095,7 +4095,7 @@
         <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
@@ -4107,13 +4107,13 @@
         <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
@@ -4122,19 +4122,19 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
@@ -4143,7 +4143,7 @@
         <v>3.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>41</v>
@@ -4152,13 +4152,13 @@
         <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY20" t="n">
         <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>34</v>
@@ -4229,13 +4229,13 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P21" t="n">
         <v>7</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
         <v>3.4</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4405,19 +4405,19 @@
         <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
         <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
         <v>2.1</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
@@ -6249,7 +6249,7 @@
         <v>3.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V32" t="n">
         <v>2.5</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W33" t="n">
         <v>8.5</v>
@@ -6613,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>
@@ -7523,7 +7523,7 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V39" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1857,13 +1857,13 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2039,13 +2039,13 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2239,10 +2239,10 @@
         <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T10" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="U10" t="n">
         <v>2.25</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>2.6</v>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>1.11</v>
@@ -2961,10 +2961,10 @@
         <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R14" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.22</v>
@@ -2982,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -3015,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
@@ -3024,7 +3024,7 @@
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>17</v>
@@ -3036,7 +3036,7 @@
         <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="n">
         <v>4</v>
@@ -3057,7 +3057,7 @@
         <v>34</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3066,16 +3066,16 @@
         <v>15</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
         <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3143,7 +3143,7 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
         <v>2.15</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
         <v>2.7</v>
@@ -3871,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -4053,10 +4053,10 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
         <v>1.25</v>
@@ -4065,7 +4065,7 @@
         <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
         <v>2.1</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.55</v>
-      </c>
       <c r="I29" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J29" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L29" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
@@ -5700,7 +5700,7 @@
         <v>1.38</v>
       </c>
       <c r="T29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U29" t="n">
         <v>1.7</v>
@@ -5709,16 +5709,16 @@
         <v>2.05</v>
       </c>
       <c r="W29" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
         <v>32</v>
@@ -5742,16 +5742,16 @@
         <v>400</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
         <v>14.5</v>
@@ -5760,7 +5760,7 @@
         <v>24</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO29" t="n">
         <v>20</v>
@@ -5775,10 +5775,10 @@
         <v>150</v>
       </c>
       <c r="AS29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU29" t="n">
         <v>7.1</v>
@@ -5787,13 +5787,13 @@
         <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>35</v>
@@ -5802,7 +5802,7 @@
         <v>65</v>
       </c>
       <c r="BB29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -6222,7 +6222,7 @@
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6237,7 +6237,7 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
         <v>2.35</v>
@@ -6249,16 +6249,16 @@
         <v>3.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V32" t="n">
         <v>2.5</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
         <v>9.5</v>
@@ -6294,13 +6294,13 @@
         <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6422,7 +6422,7 @@
         <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
         <v>1.53</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W33" t="n">
         <v>8.5</v>
@@ -6613,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -6977,7 +6977,7 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1520,13 +1520,13 @@
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1556,10 +1556,10 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1574,7 +1574,7 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
@@ -1583,10 +1583,10 @@
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
@@ -1607,7 +1607,7 @@
         <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
@@ -1699,7 +1699,7 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.05</v>
@@ -1857,13 +1857,13 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -2039,13 +2039,13 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2961,10 +2961,10 @@
         <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S14" t="n">
         <v>1.22</v>
@@ -2973,34 +2973,34 @@
         <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -3015,16 +3015,16 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>17</v>
@@ -3033,10 +3033,10 @@
         <v>6.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
         <v>4</v>
@@ -3057,25 +3057,25 @@
         <v>34</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB14" t="n">
         <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R17" t="n">
         <v>2.7</v>
@@ -3871,7 +3871,7 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -4053,7 +4053,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
         <v>2.5</v>
@@ -4229,10 +4229,10 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="n">
         <v>1.33</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4796,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5664,55 +5664,55 @@
         <v>3.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J29" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="K29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S29" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
@@ -5727,10 +5727,10 @@
         <v>35</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE29" t="n">
         <v>13.5</v>
@@ -5739,13 +5739,13 @@
         <v>55</v>
       </c>
       <c r="AG29" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.25</v>
@@ -5754,55 +5754,55 @@
         <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO29" t="n">
         <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR29" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS29" t="n">
         <v>300</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA29" t="n">
         <v>60</v>
       </c>
-      <c r="AW29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>35</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>65</v>
-      </c>
       <c r="BB29" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC29" t="n">
         <v>51</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -6228,7 +6228,7 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
@@ -6395,7 +6395,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6718,7 +6718,7 @@
         <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -6977,7 +6977,7 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -7135,10 +7135,10 @@
         <v>4.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>8.85</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7523,7 +7523,7 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -932,10 +932,10 @@
         <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -944,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1517,34 +1517,34 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1556,31 +1556,31 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1601,22 +1601,22 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
         <v>101</v>
       </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1699,7 +1699,7 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
         <v>2.05</v>
@@ -1857,13 +1857,13 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2442,10 +2442,10 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -2466,7 +2466,7 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
@@ -2475,10 +2475,10 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2514,7 +2514,7 @@
         <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2761,7 +2761,7 @@
         <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L13" t="n">
         <v>2.1</v>
@@ -2937,13 +2937,13 @@
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L14" t="n">
         <v>2.2</v>
@@ -2961,7 +2961,7 @@
         <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R14" t="n">
         <v>3.1</v>
@@ -3125,7 +3125,7 @@
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
@@ -3486,7 +3486,7 @@
         <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
         <v>2.7</v>
@@ -3668,7 +3668,7 @@
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
@@ -3683,16 +3683,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3850,7 +3850,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
@@ -3865,13 +3865,13 @@
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -4038,7 +4038,7 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4053,10 +4053,10 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S20" t="n">
         <v>1.25</v>
@@ -4211,13 +4211,13 @@
         <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K21" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L21" t="n">
         <v>6</v>
@@ -4226,7 +4226,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -4235,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.18</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4259,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
@@ -4271,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
@@ -4295,13 +4295,13 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4340,7 +4340,7 @@
         <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -4793,16 +4793,16 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -4811,7 +4811,7 @@
         <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB24" t="n">
         <v>41</v>
@@ -4832,13 +4832,13 @@
         <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
         <v>26</v>
@@ -4892,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="BB24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
         <v>51</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5136,7 +5136,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
@@ -5342,19 +5342,19 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
         <v>19</v>
@@ -5372,7 +5372,7 @@
         <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG27" t="n">
         <v>1250</v>
@@ -5390,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5426,7 +5426,7 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5435,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
         <v>301</v>
@@ -5488,7 +5488,7 @@
         <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
@@ -5497,10 +5497,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5521,7 +5521,7 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6228,7 +6228,7 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
@@ -6601,10 +6601,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6771,10 +6771,10 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -7490,7 +7490,7 @@
         <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,7 +1126,7 @@
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1192,13 +1192,13 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1237,10 +1237,10 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
@@ -1305,7 +1305,7 @@
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1508,7 +1508,7 @@
         <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,10 +1523,10 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1535,7 +1535,7 @@
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1550,19 +1550,19 @@
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1595,7 +1595,7 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
@@ -1675,13 +1675,13 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
@@ -1857,13 +1857,13 @@
         <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2591,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2755,7 +2755,7 @@
         <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
         <v>4.33</v>
@@ -2767,10 +2767,10 @@
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2812,7 +2812,7 @@
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2827,7 +2827,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2878,13 +2878,13 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
         <v>34</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2961,7 +2961,7 @@
         <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R14" t="n">
         <v>3.1</v>
@@ -2973,16 +2973,16 @@
         <v>4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W14" t="n">
         <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
@@ -3021,7 +3021,7 @@
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -3033,7 +3033,7 @@
         <v>6.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3075,7 +3075,7 @@
         <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -3143,7 +3143,7 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>2.15</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -3316,7 +3316,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3507,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R17" t="n">
         <v>2.7</v>
@@ -3683,16 +3683,16 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
         <v>3.8</v>
@@ -3871,7 +3871,7 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>2.1</v>
@@ -4038,7 +4038,7 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4214,10 +4214,10 @@
         <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L21" t="n">
         <v>6</v>
@@ -4226,7 +4226,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
         <v>1.08</v>
@@ -4235,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S21" t="n">
         <v>1.18</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4963,10 +4963,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5315,10 +5315,10 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -5327,7 +5327,7 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
@@ -5488,7 +5488,7 @@
         <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
@@ -5497,10 +5497,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -5894,13 +5894,13 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -6225,13 +6225,13 @@
         <v>3.2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -6395,7 +6395,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -6407,16 +6407,16 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q33" t="n">
         <v>2.4</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6589,22 +6589,22 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6965,10 +6965,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
         <v>1.4</v>
@@ -7490,7 +7490,7 @@
         <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,16 +765,16 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1180,10 +1180,10 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1195,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
@@ -1493,28 +1493,28 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1523,10 +1523,10 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1550,19 +1550,19 @@
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1592,10 +1592,10 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1875,10 +1875,10 @@
         <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1899,7 +1899,7 @@
         <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1920,16 +1920,16 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1938,13 +1938,13 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO8" t="n">
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>81</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1968,7 +1968,7 @@
         <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
@@ -2224,13 +2224,13 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2245,10 +2245,10 @@
         <v>3.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W10" t="n">
         <v>6.4</v>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
@@ -2585,10 +2585,10 @@
         <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2597,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
         <v>2.1</v>
@@ -2812,7 +2812,7 @@
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2827,7 +2827,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2878,13 +2878,13 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>34</v>
@@ -2943,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L14" t="n">
         <v>2.2</v>
@@ -2955,10 +2955,10 @@
         <v>23</v>
       </c>
       <c r="O14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
         <v>1.36</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -3125,7 +3125,7 @@
         <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
@@ -3143,7 +3143,7 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
         <v>2.15</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -3495,19 +3495,19 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
         <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
         <v>2.7</v>
@@ -3564,10 +3564,10 @@
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>17</v>
@@ -3600,7 +3600,7 @@
         <v>6.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
@@ -3668,7 +3668,7 @@
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
@@ -3677,22 +3677,22 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3841,19 +3841,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
         <v>4.5</v>
@@ -3862,10 +3862,10 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -3874,7 +3874,7 @@
         <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3892,7 +3892,7 @@
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3904,7 +3904,7 @@
         <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
@@ -3922,19 +3922,19 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>34</v>
@@ -3967,7 +3967,7 @@
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -4041,13 +4041,13 @@
         <v>1.91</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
         <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
         <v>5.5</v>
@@ -4229,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P21" t="n">
         <v>8</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -5124,7 +5124,7 @@
         <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5297,31 +5297,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
         <v>2.75</v>
@@ -5330,7 +5330,7 @@
         <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5345,16 +5345,16 @@
         <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
         <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>19</v>
@@ -5363,7 +5363,7 @@
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5372,7 +5372,7 @@
         <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
         <v>1250</v>
@@ -5390,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5417,7 +5417,7 @@
         <v>2.5</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5426,7 +5426,7 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5435,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
         <v>301</v>
@@ -5479,31 +5479,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
@@ -5521,25 +5521,25 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
         <v>26</v>
@@ -5551,43 +5551,43 @@
         <v>6.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
         <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5605,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
         <v>21</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -6225,13 +6225,13 @@
         <v>3.2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>17</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -6389,10 +6389,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
         <v>2.3</v>
@@ -6401,40 +6401,40 @@
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W33" t="n">
         <v>8.5</v>
@@ -6443,7 +6443,7 @@
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
         <v>34</v>
@@ -6455,7 +6455,7 @@
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD33" t="n">
         <v>6</v>
@@ -6464,10 +6464,10 @@
         <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH33" t="n">
         <v>6.5</v>
@@ -6476,7 +6476,7 @@
         <v>10</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -6494,7 +6494,7 @@
         <v>19</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ33" t="n">
         <v>67</v>
@@ -6503,10 +6503,10 @@
         <v>101</v>
       </c>
       <c r="AS33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU33" t="n">
         <v>8.5</v>
@@ -6530,13 +6530,13 @@
         <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC33" t="n">
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -6589,22 +6589,22 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6771,13 +6771,13 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
         <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -6953,13 +6953,13 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
         <v>3.5</v>
@@ -7117,55 +7117,55 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J37" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="K37" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L37" t="n">
         <v>4.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R37" t="n">
         <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="U37" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X37" t="n">
         <v>9</v>
@@ -7174,70 +7174,70 @@
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="n">
         <v>18</v>
       </c>
-      <c r="AA37" t="n">
-        <v>17</v>
-      </c>
       <c r="AB37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE37" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="n">
         <v>700</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
         <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL37" t="n">
         <v>40</v>
       </c>
       <c r="AM37" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR37" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV37" t="n">
         <v>60</v>
@@ -7249,7 +7249,7 @@
         <v>22</v>
       </c>
       <c r="AY37" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ37" t="n">
         <v>120</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
         <v>2.35</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,22 +765,22 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1180,10 +1180,10 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1195,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1296,16 +1296,16 @@
         <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1350,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1377,10 +1377,10 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1493,16 +1493,16 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.4</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1672,7 +1672,7 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1792,7 +1792,7 @@
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
@@ -1857,10 +1857,10 @@
         <v>2.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -2021,31 +2021,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2087,13 +2087,13 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2105,13 +2105,13 @@
         <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -2227,10 +2227,10 @@
         <v>15.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>4.75</v>
+        <v>5.24</v>
       </c>
       <c r="Q10" t="n">
         <v>1.55</v>
@@ -2242,40 +2242,40 @@
         <v>1.24</v>
       </c>
       <c r="T10" t="n">
-        <v>3.65</v>
+        <v>3.91</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="V10" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA10" t="n">
         <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>110</v>
@@ -2284,10 +2284,10 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
         <v>45</v>
@@ -2299,40 +2299,40 @@
         <v>250</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AS10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AY10" t="n">
         <v>75</v>
@@ -2406,19 +2406,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2767,10 +2767,10 @@
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2967,10 +2967,10 @@
         <v>3.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U14" t="n">
         <v>1.4</v>
@@ -2982,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2994,10 +2994,10 @@
         <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
         <v>9.5</v>
@@ -3048,7 +3048,7 @@
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -3143,10 +3143,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3325,16 +3325,16 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -3367,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3412,7 +3412,7 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3495,13 +3495,13 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
         <v>6</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3859,13 +3859,13 @@
         <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -4041,13 +4041,13 @@
         <v>1.91</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
         <v>5.5</v>
@@ -4229,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P21" t="n">
         <v>8</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4769,13 +4769,13 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4951,13 +4951,13 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -5124,7 +5124,7 @@
         <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
@@ -5133,13 +5133,13 @@
         <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.05</v>
       </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2</v>
-      </c>
       <c r="L27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5348,16 +5348,16 @@
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB27" t="n">
         <v>34</v>
@@ -5375,10 +5375,10 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5396,13 +5396,13 @@
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
@@ -5426,7 +5426,7 @@
         <v>5.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -6228,7 +6228,7 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O32" t="n">
         <v>1.17</v>
@@ -6237,10 +6237,10 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S32" t="n">
         <v>1.29</v>
@@ -6771,13 +6771,13 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
         <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -6953,13 +6953,13 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
         <v>3.5</v>
@@ -7135,10 +7135,10 @@
         <v>4.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
         <v>2.35</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
@@ -7532,13 +7532,13 @@
         <v>8</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
         <v>17</v>
@@ -7553,10 +7553,10 @@
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="n">
         <v>201</v>
@@ -7568,13 +7568,13 @@
         <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
@@ -7601,16 +7601,16 @@
         <v>2.75</v>
       </c>
       <c r="AU39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
       </c>
       <c r="AW39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY39" t="n">
         <v>26</v>
@@ -7619,7 +7619,7 @@
         <v>51</v>
       </c>
       <c r="BA39" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB39" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1180,10 +1180,10 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1213,7 +1213,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1377,10 +1377,10 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1478,16 +1478,16 @@
         <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1556,10 +1556,10 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
@@ -1857,13 +1857,13 @@
         <v>2.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -2021,31 +2021,31 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2087,13 +2087,13 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2105,13 +2105,13 @@
         <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
@@ -2209,16 +2209,16 @@
         <v>5.7</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K10" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -2263,7 +2263,7 @@
         <v>5.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB10" t="n">
         <v>27</v>
@@ -2296,7 +2296,7 @@
         <v>600</v>
       </c>
       <c r="AL10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM10" t="n">
         <v>120</v>
@@ -2305,13 +2305,13 @@
         <v>2.95</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AP10" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
         <v>35</v>
@@ -2320,7 +2320,7 @@
         <v>200</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU10" t="n">
         <v>10</v>
@@ -2335,7 +2335,7 @@
         <v>110</v>
       </c>
       <c r="AY10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ10" t="n">
         <v>500</v>
@@ -2406,19 +2406,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2767,10 +2767,10 @@
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2827,7 +2827,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2937,7 +2937,7 @@
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -3316,7 +3316,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3871,7 +3871,7 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
         <v>2.15</v>
@@ -4053,7 +4053,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R20" t="n">
         <v>2.6</v>
@@ -4211,7 +4211,7 @@
         <v>5.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>1.8</v>
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
         <v>3.4</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4259,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
@@ -4271,7 +4271,7 @@
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
@@ -4295,13 +4295,13 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4340,7 +4340,7 @@
         <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
         <v>2.1</v>
@@ -4602,7 +4602,7 @@
         <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4769,13 +4769,13 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
@@ -4951,13 +4951,13 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -5133,19 +5133,19 @@
         <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5315,13 +5315,13 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
         <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
@@ -5497,13 +5497,13 @@
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
@@ -5521,10 +5521,10 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6207,13 +6207,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -6243,10 +6243,10 @@
         <v>2.3</v>
       </c>
       <c r="S32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U32" t="n">
         <v>1.5</v>
@@ -6255,10 +6255,10 @@
         <v>2.5</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>9.5</v>
@@ -6273,13 +6273,13 @@
         <v>21</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>34</v>
@@ -6294,13 +6294,13 @@
         <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>29</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -6324,7 +6324,7 @@
         <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
@@ -6419,10 +6419,10 @@
         <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
         <v>1.5</v>
@@ -6771,13 +6771,13 @@
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
         <v>9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -6795,10 +6795,10 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W35" t="n">
         <v>7</v>
@@ -6953,13 +6953,13 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
         <v>3.5</v>
@@ -6977,7 +6977,7 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -7317,22 +7317,22 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>
@@ -7523,7 +7523,7 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V39" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -1180,10 +1180,10 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1213,7 +1213,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1377,10 +1377,10 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
@@ -1875,10 +1875,10 @@
         <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1899,7 +1899,7 @@
         <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1920,16 +1920,16 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>15</v>
@@ -1938,13 +1938,13 @@
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
         <v>81</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1968,7 +1968,7 @@
         <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
@@ -2063,7 +2063,7 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
         <v>2.1</v>
@@ -2427,7 +2427,7 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V11" t="n">
         <v>2.2</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2603,28 +2603,28 @@
         <v>2.1</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2642,28 +2642,28 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
         <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>4.5</v>
@@ -2684,10 +2684,10 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
@@ -2767,10 +2767,10 @@
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
         <v>1.11</v>
@@ -2937,7 +2937,7 @@
         <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -3143,10 +3143,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
@@ -3871,7 +3871,7 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>2.15</v>
@@ -4053,7 +4053,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
         <v>2.6</v>
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
         <v>3.4</v>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
         <v>2.1</v>
@@ -4587,22 +4587,22 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4769,13 +4769,13 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
@@ -4951,13 +4951,13 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -5133,19 +5133,19 @@
         <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5297,40 +5297,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5342,28 +5342,28 @@
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
         <v>8.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
         <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
         <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
         <v>6</v>
@@ -5372,7 +5372,7 @@
         <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG27" t="n">
         <v>351</v>
@@ -5381,7 +5381,7 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
@@ -5390,7 +5390,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5402,7 +5402,7 @@
         <v>11</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>41</v>
@@ -5417,7 +5417,7 @@
         <v>2.5</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5435,7 +5435,7 @@
         <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
         <v>301</v>
@@ -5521,10 +5521,10 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6225,13 +6225,13 @@
         <v>3.2</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -6389,16 +6389,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -6407,13 +6407,13 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
         <v>2.75</v>
@@ -6461,25 +6461,25 @@
         <v>6</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>51</v>
       </c>
       <c r="AG33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>10</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
         <v>21</v>
@@ -6497,10 +6497,10 @@
         <v>29</v>
       </c>
       <c r="AQ33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS33" t="n">
         <v>251</v>
@@ -6527,7 +6527,7 @@
         <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB33" t="n">
         <v>201</v>
@@ -6536,7 +6536,7 @@
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -6592,7 +6592,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6613,10 +6613,10 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -6795,13 +6795,13 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
@@ -6831,7 +6831,7 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH35" t="n">
         <v>8.5</v>
@@ -6855,13 +6855,13 @@
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP35" t="n">
         <v>26</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR35" t="n">
         <v>67</v>
@@ -6879,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX35" t="n">
         <v>17</v>
@@ -6953,13 +6953,13 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
         <v>3.5</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -891,7 +891,7 @@
         <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="BD2" t="n">
         <v>140</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2406,19 +2406,19 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2427,10 +2427,10 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2442,7 +2442,7 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2451,7 +2451,7 @@
         <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>8</v>
@@ -2463,7 +2463,7 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2514,7 +2514,7 @@
         <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>26</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
@@ -2582,7 +2582,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2597,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2627,10 +2627,10 @@
         <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2651,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2666,10 +2666,10 @@
         <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2693,10 +2693,10 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2705,7 +2705,7 @@
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
         <v>126</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -3316,7 +3316,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -3331,22 +3331,22 @@
         <v>2.03</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -3367,7 +3367,7 @@
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3412,7 +3412,7 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3424,7 +3424,7 @@
         <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.45</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.5</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
         <v>1.13</v>
@@ -3513,10 +3513,10 @@
         <v>2.7</v>
       </c>
       <c r="S17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
         <v>1.4</v>
@@ -3546,7 +3546,7 @@
         <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
@@ -3573,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
         <v>5</v>
@@ -3594,19 +3594,19 @@
         <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU17" t="n">
         <v>6.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW17" t="n">
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>17</v>
@@ -4029,7 +4029,7 @@
         <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
         <v>5.5</v>
@@ -4587,16 +4587,16 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
@@ -4769,13 +4769,13 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -4951,13 +4951,13 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
         <v>3.75</v>
@@ -5133,19 +5133,19 @@
         <v>3.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
         <v>2</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -6207,31 +6207,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -6339,7 +6339,7 @@
         <v>15</v>
       </c>
       <c r="AY32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ32" t="n">
         <v>41</v>
@@ -6395,7 +6395,7 @@
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -6407,13 +6407,13 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
         <v>2.75</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6613,16 +6613,16 @@
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
         <v>7</v>
       </c>
       <c r="X34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
@@ -6673,7 +6673,7 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -6691,7 +6691,7 @@
         <v>3</v>
       </c>
       <c r="AU34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6700,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -6795,10 +6795,10 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
         <v>7.5</v>
@@ -6855,13 +6855,13 @@
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP35" t="n">
         <v>26</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR35" t="n">
         <v>67</v>
@@ -6879,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX35" t="n">
         <v>17</v>
@@ -6977,7 +6977,7 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
         <v>2</v>
@@ -7344,7 +7344,7 @@
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W38" t="n">
         <v>6.5</v>
@@ -7523,7 +7523,7 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,13 +765,13 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -947,16 +947,16 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.3</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1350,16 +1350,16 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>5.5</v>
@@ -1377,10 +1377,10 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,10 +1699,10 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1792,7 +1792,7 @@
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
         <v>2.05</v>
@@ -2385,19 +2385,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
         <v>4.5</v>
@@ -2415,16 +2415,16 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U11" t="n">
         <v>1.57</v>
@@ -2433,10 +2433,10 @@
         <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
@@ -2448,13 +2448,13 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2478,10 +2478,10 @@
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2490,19 +2490,19 @@
         <v>8.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2517,16 +2517,16 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
         <v>351</v>
@@ -2597,7 +2597,7 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
         <v>2.15</v>
@@ -3143,10 +3143,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
         <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -3424,7 +3424,7 @@
         <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
@@ -3501,16 +3501,16 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3543,7 +3543,7 @@
         <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD17" t="n">
         <v>8.5</v>
@@ -3564,10 +3564,10 @@
         <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>17</v>
@@ -3606,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>17</v>
@@ -3621,7 +3621,7 @@
         <v>81</v>
       </c>
       <c r="BC17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD17" t="n">
         <v>151</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
         <v>2.15</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -4029,7 +4029,7 @@
         <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -4053,7 +4053,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R20" t="n">
         <v>2.6</v>
@@ -4065,7 +4065,7 @@
         <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V20" t="n">
         <v>2.1</v>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>5.5</v>
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
         <v>3.4</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
         <v>2.1</v>
@@ -4429,22 +4429,22 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>19</v>
@@ -4465,7 +4465,7 @@
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4480,10 +4480,10 @@
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
         <v>4.75</v>
@@ -4516,7 +4516,7 @@
         <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -5145,10 +5145,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
         <v>1.36</v>
@@ -6216,10 +6216,10 @@
         <v>2.88</v>
       </c>
       <c r="J32" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L32" t="n">
         <v>3.25</v>
@@ -6422,7 +6422,7 @@
         <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S33" t="n">
         <v>1.5</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6601,10 +6601,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R34" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -6786,7 +6786,7 @@
         <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
         <v>1.5</v>
@@ -6804,7 +6804,7 @@
         <v>7.5</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
         <v>10</v>
@@ -6837,31 +6837,31 @@
         <v>8.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
         <v>26</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN35" t="n">
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP35" t="n">
         <v>26</v>
       </c>
       <c r="AQ35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR35" t="n">
         <v>67</v>
@@ -6879,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX35" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,13 +765,13 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>3.2</v>
@@ -947,13 +947,13 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1195,10 +1195,10 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1350,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1377,10 +1377,10 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1705,16 +1705,16 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1756,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1869,22 +1869,22 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>13</v>
@@ -1899,13 +1899,13 @@
         <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
@@ -1929,16 +1929,16 @@
         <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO8" t="n">
         <v>23</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1968,10 +1968,10 @@
         <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>29</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
         <v>2.05</v>
@@ -2063,7 +2063,7 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
         <v>2.1</v>
@@ -2415,10 +2415,10 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
         <v>1.25</v>
@@ -2597,7 +2597,7 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>2.15</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3137,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3155,22 +3155,22 @@
         <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
         <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
         <v>13</v>
@@ -3197,16 +3197,16 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>34</v>
@@ -3215,13 +3215,13 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
@@ -3239,10 +3239,10 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -3325,28 +3325,28 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.83</v>
       </c>
-      <c r="R16" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -3355,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
@@ -3364,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
@@ -3412,7 +3412,7 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3495,13 +3495,13 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
         <v>6.5</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
         <v>2.3</v>
@@ -3856,22 +3856,22 @@
         <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>2.15</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -3898,7 +3898,7 @@
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>13</v>
@@ -3931,7 +3931,7 @@
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
         <v>34</v>
@@ -3940,16 +3940,16 @@
         <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP19" t="n">
         <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>41</v>
@@ -3970,7 +3970,7 @@
         <v>6.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
         <v>26</v>
@@ -4053,7 +4053,7 @@
         <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
         <v>2.6</v>
@@ -4065,7 +4065,7 @@
         <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
         <v>2.1</v>
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
         <v>3.4</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4417,10 +4417,10 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S22" t="n">
         <v>1.33</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4975,10 +4975,10 @@
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
         <v>7.5</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5521,10 +5521,10 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6207,40 +6207,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K32" t="n">
         <v>2.38</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6249,25 +6249,25 @@
         <v>3.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="V32" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB32" t="n">
         <v>21</v>
@@ -6276,46 +6276,46 @@
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH32" t="n">
         <v>13</v>
       </c>
       <c r="AI32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP32" t="n">
         <v>17</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR32" t="n">
         <v>51</v>
@@ -6333,25 +6333,25 @@
         <v>41</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY32" t="n">
         <v>21</v>
       </c>
       <c r="AZ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6389,28 +6389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -6422,7 +6422,7 @@
         <v>2.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
         <v>1.5</v>
@@ -6431,25 +6431,25 @@
         <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB33" t="n">
         <v>41</v>
@@ -6470,7 +6470,7 @@
         <v>351</v>
       </c>
       <c r="AH33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI33" t="n">
         <v>11</v>
@@ -6482,16 +6482,16 @@
         <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM33" t="n">
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP33" t="n">
         <v>29</v>
@@ -6515,10 +6515,10 @@
         <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY33" t="n">
         <v>26</v>
@@ -6527,7 +6527,7 @@
         <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
         <v>201</v>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6592,7 +6592,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
         <v>1.25</v>
@@ -6601,28 +6601,28 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.77</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T34" t="n">
-        <v>3</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y34" t="n">
         <v>8.5</v>
@@ -6634,10 +6634,10 @@
         <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
         <v>8</v>
@@ -6649,7 +6649,7 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH34" t="n">
         <v>13</v>
@@ -6688,10 +6688,10 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6700,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="AX34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY34" t="n">
         <v>34</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -6786,7 +6786,7 @@
         <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
         <v>1.5</v>
@@ -6795,22 +6795,22 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA35" t="n">
         <v>21</v>
@@ -6834,34 +6834,34 @@
         <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL35" t="n">
         <v>29</v>
       </c>
-      <c r="AL35" t="n">
-        <v>26</v>
-      </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP35" t="n">
         <v>26</v>
       </c>
       <c r="AQ35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR35" t="n">
         <v>67</v>
@@ -6879,7 +6879,7 @@
         <v>51</v>
       </c>
       <c r="AW35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX35" t="n">
         <v>17</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -6953,10 +6953,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O36" t="n">
         <v>1.29</v>
@@ -6989,13 +6989,13 @@
         <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z36" t="n">
         <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
         <v>29</v>
@@ -7019,10 +7019,10 @@
         <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1687,10 +1687,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1804,7 +1804,7 @@
         <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -2403,13 +2403,13 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2585,22 +2585,22 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2767,13 +2767,13 @@
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
         <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P13" t="n">
         <v>6.5</v>
@@ -3125,7 +3125,7 @@
         <v>2.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
         <v>4.75</v>
@@ -3137,16 +3137,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3155,10 +3155,10 @@
         <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
         <v>9</v>
@@ -3182,7 +3182,7 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3307,7 +3307,7 @@
         <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
@@ -3316,7 +3316,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -3331,22 +3331,22 @@
         <v>2.05</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -3355,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
@@ -3364,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
@@ -3412,7 +3412,7 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3424,7 +3424,7 @@
         <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
         <v>6.5</v>
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V17" t="n">
         <v>2.75</v>
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
@@ -3552,16 +3552,16 @@
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
         <v>81</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
@@ -3570,10 +3570,10 @@
         <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>5</v>
@@ -3582,10 +3582,10 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
@@ -3603,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
         <v>13</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K19" t="n">
         <v>2.38</v>
@@ -3859,13 +3859,13 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -3904,13 +3904,13 @@
         <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3961,7 +3961,7 @@
         <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
@@ -3973,10 +3973,10 @@
         <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -4038,7 +4038,7 @@
         <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -4065,10 +4065,10 @@
         <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W20" t="n">
         <v>21</v>
@@ -4080,13 +4080,13 @@
         <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="n">
         <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>19</v>
@@ -4095,46 +4095,46 @@
         <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
@@ -4143,7 +4143,7 @@
         <v>3.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>41</v>
@@ -4152,7 +4152,7 @@
         <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY20" t="n">
         <v>15</v>
@@ -4205,13 +4205,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.8</v>
@@ -4247,10 +4247,10 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
         <v>13</v>
@@ -4268,13 +4268,13 @@
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>26</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4295,13 +4295,13 @@
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL21" t="n">
         <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4331,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4340,7 +4340,7 @@
         <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4933,28 +4933,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4963,37 +4963,37 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.95</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.92</v>
-      </c>
       <c r="W25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>26</v>
@@ -5002,10 +5002,10 @@
         <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>51</v>
@@ -5014,16 +5014,16 @@
         <v>251</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
@@ -5035,22 +5035,22 @@
         <v>3.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5059,10 +5059,10 @@
         <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>29</v>
@@ -5497,10 +5497,10 @@
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
@@ -5885,10 +5885,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>7.5</v>
@@ -6207,58 +6207,58 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
         <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.62</v>
       </c>
-      <c r="R32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.54</v>
-      </c>
       <c r="V32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -6270,13 +6270,13 @@
         <v>15</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
         <v>12</v>
@@ -6285,10 +6285,10 @@
         <v>41</v>
       </c>
       <c r="AG32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
         <v>19</v>
@@ -6303,7 +6303,7 @@
         <v>23</v>
       </c>
       <c r="AM32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN32" t="n">
         <v>4.33</v>
@@ -6312,22 +6312,22 @@
         <v>11</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR32" t="n">
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
         <v>41</v>
@@ -6339,7 +6339,7 @@
         <v>17</v>
       </c>
       <c r="AY32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ32" t="n">
         <v>51</v>
@@ -6348,10 +6348,10 @@
         <v>67</v>
       </c>
       <c r="BB32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -6407,13 +6407,13 @@
         <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
         <v>2.75</v>
@@ -6431,10 +6431,10 @@
         <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W33" t="n">
         <v>8</v>
@@ -6473,13 +6473,13 @@
         <v>7.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ33" t="n">
         <v>10</v>
       </c>
       <c r="AK33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
         <v>23</v>
@@ -6536,7 +6536,7 @@
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
         <v>4.2</v>
@@ -6589,37 +6589,37 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X34" t="n">
         <v>8</v>
@@ -6634,10 +6634,10 @@
         <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>8</v>
@@ -6649,7 +6649,7 @@
         <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH34" t="n">
         <v>13</v>
@@ -6673,7 +6673,7 @@
         <v>3.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -6688,7 +6688,7 @@
         <v>126</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
         <v>8</v>
@@ -6718,7 +6718,7 @@
         <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
@@ -6795,22 +6795,22 @@
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X35" t="n">
         <v>11</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA35" t="n">
         <v>21</v>
@@ -6834,7 +6834,7 @@
         <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
         <v>15</v>
@@ -6846,7 +6846,7 @@
         <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
         <v>41</v>
@@ -6935,13 +6935,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
@@ -6977,22 +6977,22 @@
         <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W36" t="n">
         <v>8</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="n">
         <v>17</v>
@@ -7013,7 +7013,7 @@
         <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH36" t="n">
         <v>10</v>
@@ -7064,7 +7064,7 @@
         <v>5</v>
       </c>
       <c r="AX36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY36" t="n">
         <v>26</v>
@@ -7076,7 +7076,7 @@
         <v>81</v>
       </c>
       <c r="BB36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC36" t="n">
         <v>126</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>5.5</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1058,16 +1058,16 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1311,13 +1311,13 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1675,22 +1675,22 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,7 +1699,7 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1804,7 +1804,7 @@
         <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2403,13 +2403,13 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2585,13 +2585,13 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
         <v>4.33</v>
@@ -2767,13 +2767,13 @@
         <v>2.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
         <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
         <v>6.5</v>
@@ -3131,13 +3131,13 @@
         <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
         <v>4.33</v>
@@ -3313,13 +3313,13 @@
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
         <v>3.75</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H17" t="n">
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3501,7 +3501,7 @@
         <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P17" t="n">
         <v>6.5</v>
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
         <v>2.75</v>
@@ -3582,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>34</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3701,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -3859,13 +3859,13 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
@@ -3883,7 +3883,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -4065,7 +4065,7 @@
         <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
         <v>2.25</v>
@@ -4235,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S21" t="n">
         <v>1.18</v>
@@ -4247,7 +4247,7 @@
         <v>4.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
         <v>2.5</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4951,22 +4951,22 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.2</v>
@@ -5521,10 +5521,10 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -5894,13 +5894,13 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -6207,40 +6207,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6258,25 +6258,25 @@
         <v>9.5</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE32" t="n">
         <v>12</v>
@@ -6291,10 +6291,10 @@
         <v>12</v>
       </c>
       <c r="AI32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
         <v>34</v>
@@ -6309,10 +6309,10 @@
         <v>4.33</v>
       </c>
       <c r="AO32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6330,10 +6330,10 @@
         <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX32" t="n">
         <v>17</v>
@@ -6351,7 +6351,7 @@
         <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6407,13 +6407,13 @@
         <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
         <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
         <v>2.75</v>
@@ -6589,13 +6589,13 @@
         <v>5.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
         <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
         <v>3.75</v>
@@ -6783,10 +6783,10 @@
         <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
         <v>1.5</v>
@@ -6953,10 +6953,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.29</v>
@@ -7317,22 +7317,22 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7499,22 +7499,22 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1311,13 +1311,13 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>2.5</v>
@@ -1326,7 +1326,7 @@
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,22 +1699,22 @@
         <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1756,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1765,7 +1765,7 @@
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1854,7 +1854,7 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
         <v>4.2</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2755,7 +2755,7 @@
         <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.33</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.63</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
         <v>1.1</v>
@@ -2988,10 +2988,10 @@
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
@@ -3021,7 +3021,7 @@
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -3030,10 +3030,10 @@
         <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3066,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>34</v>
@@ -3131,13 +3131,13 @@
         <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
         <v>4.33</v>
@@ -3301,19 +3301,19 @@
         <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
         <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
         <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
         <v>13</v>
@@ -3322,7 +3322,7 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>1.75</v>
@@ -3331,16 +3331,16 @@
         <v>2.05</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
@@ -3355,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
@@ -3364,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
@@ -3412,7 +3412,7 @@
         <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
@@ -3424,7 +3424,7 @@
         <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>34</v>
@@ -3495,13 +3495,13 @@
         <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
         <v>6.5</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
@@ -3677,13 +3677,13 @@
         <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
         <v>3.5</v>
@@ -3695,10 +3695,10 @@
         <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
         <v>1.73</v>
@@ -3707,16 +3707,16 @@
         <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>17</v>
@@ -3776,19 +3776,19 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>26</v>
@@ -3797,7 +3797,7 @@
         <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
         <v>151</v>
@@ -3859,22 +3859,22 @@
         <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
         <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -4235,10 +4235,10 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S21" t="n">
         <v>1.18</v>
@@ -4393,7 +4393,7 @@
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -4963,10 +4963,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5115,22 +5115,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -5151,10 +5151,10 @@
         <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.62</v>
@@ -5163,25 +5163,25 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
         <v>6.5</v>
@@ -5208,16 +5208,16 @@
         <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
         <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5232,13 +5232,13 @@
         <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
         <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
@@ -5247,16 +5247,16 @@
         <v>15</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
         <v>51</v>
       </c>
       <c r="BA26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
         <v>351</v>
@@ -5479,31 +5479,31 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
@@ -5521,25 +5521,25 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>9</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB28" t="n">
         <v>26</v>
@@ -5551,43 +5551,43 @@
         <v>6.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
         <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>41</v>
       </c>
       <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
         <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>41</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5605,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX28" t="n">
         <v>21</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
@@ -6216,7 +6216,7 @@
         <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
         <v>2.25</v>
@@ -6237,10 +6237,10 @@
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1.33</v>
@@ -6255,7 +6255,7 @@
         <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -6312,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6419,10 +6419,10 @@
         <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
         <v>1.5</v>
@@ -6601,10 +6601,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6777,10 +6777,10 @@
         <v>8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q35" t="n">
         <v>2.25</v>
@@ -7332,7 +7332,7 @@
         <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R39" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -891,7 +891,7 @@
         <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="BD2" t="n">
         <v>140</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1117,7 +1117,7 @@
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1326,7 +1326,7 @@
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1350,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1377,10 +1377,10 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1854,7 +1854,7 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2597,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2615,16 +2615,16 @@
         <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2651,16 +2651,16 @@
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
         <v>29</v>
@@ -2675,7 +2675,7 @@
         <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2696,10 +2696,10 @@
         <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
@@ -2755,7 +2755,7 @@
         <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2.63</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>1.1</v>
@@ -2988,10 +2988,10 @@
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
@@ -3000,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="n">
         <v>4.33</v>
@@ -4393,7 +4393,7 @@
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -5479,40 +5479,40 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5521,25 +5521,25 @@
         <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
         <v>26</v>
@@ -5551,43 +5551,43 @@
         <v>6.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
         <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>41</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5605,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
         <v>21</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -5861,22 +5861,22 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5894,13 +5894,13 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1192,13 +1192,13 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J8" t="n">
         <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1899,7 +1899,7 @@
         <v>51</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1929,16 +1929,16 @@
         <v>8.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>23</v>
@@ -1968,7 +1968,7 @@
         <v>3.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
         <v>19</v>
@@ -2388,19 +2388,19 @@
         <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2415,16 +2415,16 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
         <v>1.57</v>
@@ -2433,22 +2433,22 @@
         <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2469,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2478,16 +2478,16 @@
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
@@ -2502,7 +2502,7 @@
         <v>81</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7.5</v>
@@ -2511,22 +2511,22 @@
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
         <v>351</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2603,28 +2603,28 @@
         <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
@@ -2633,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2642,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
         <v>126</v>
@@ -2651,22 +2651,22 @@
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
         <v>26</v>
       </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
@@ -2684,10 +2684,10 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
@@ -2696,16 +2696,16 @@
         <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
         <v>126</v>
@@ -2791,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
         <v>21</v>
@@ -2815,7 +2815,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
         <v>9.5</v>
@@ -2827,7 +2827,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH13" t="n">
         <v>12</v>
@@ -2836,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2854,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>67</v>
@@ -2875,7 +2875,7 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
         <v>8</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2973,13 +2973,13 @@
         <v>4.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -2988,13 +2988,13 @@
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>26</v>
@@ -3003,10 +3003,10 @@
         <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>81</v>
@@ -3015,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
@@ -3024,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>17</v>
@@ -3039,13 +3039,13 @@
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
         <v>4.33</v>
@@ -3054,13 +3054,13 @@
         <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
         <v>4.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
@@ -3075,7 +3075,7 @@
         <v>67</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -4429,7 +4429,7 @@
         <v>3.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
         <v>2.25</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
         <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -5509,10 +5509,10 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5536,7 +5536,7 @@
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
         <v>15</v>
@@ -5617,7 +5617,7 @@
         <v>67</v>
       </c>
       <c r="BA28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
         <v>201</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -5858,7 +5858,7 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
@@ -5873,34 +5873,34 @@
         <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -5936,7 +5936,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5948,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
@@ -5960,7 +5960,7 @@
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -5981,7 +5981,7 @@
         <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
         <v>201</v>
@@ -7317,16 +7317,16 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,22 +765,22 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
         <v>8.5</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1058,13 +1058,13 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1863,22 +1863,22 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1887,16 +1887,16 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1971,16 +1971,16 @@
         <v>9.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -2388,7 +2388,7 @@
         <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.75</v>
@@ -2591,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2791,34 +2791,34 @@
         <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2836,7 +2836,7 @@
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK13" t="n">
         <v>15</v>
@@ -2848,16 +2848,16 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2875,16 +2875,16 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
         <v>34</v>
@@ -4587,16 +4587,16 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4769,13 +4769,13 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -5503,16 +5503,16 @@
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -5858,16 +5858,16 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -5885,13 +5885,13 @@
         <v>2.63</v>
       </c>
       <c r="U30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>9.5</v>
@@ -5900,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
         <v>17</v>
@@ -5936,7 +5936,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5948,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
@@ -5981,7 +5981,7 @@
         <v>67</v>
       </c>
       <c r="BA30" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB30" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -756,7 +756,7 @@
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,28 +765,28 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -810,7 +810,7 @@
         <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -828,7 +828,7 @@
         <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>140</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1010,7 +1010,7 @@
         <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
@@ -1067,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,22 +1153,22 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1189,37 +1189,37 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO4" t="n">
         <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1237,28 +1237,28 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -4587,22 +4587,22 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4769,13 +4769,13 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -5861,13 +5861,13 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -5876,13 +5876,13 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U30" t="n">
         <v>1.8</v>
@@ -5894,7 +5894,7 @@
         <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -5960,7 +5960,7 @@
         <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5972,7 +5972,7 @@
         <v>5.5</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
         <v>29</v>
@@ -7317,22 +7317,22 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -759,7 +759,7 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>3.75</v>
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,16 +789,16 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -813,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -825,7 +825,7 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -870,7 +870,7 @@
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -882,10 +882,10 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -944,13 +944,13 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.37</v>
@@ -971,22 +971,22 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1037,10 +1037,10 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>126</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1338,7 +1338,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1845,7 +1845,7 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,10 +1881,10 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -4587,22 +4587,22 @@
         <v>3.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
         <v>1.5</v>
@@ -4614,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4784,7 +4784,7 @@
         <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -7317,22 +7317,22 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q38" t="n">
         <v>2.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7499,13 +7499,13 @@
         <v>3.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -765,13 +765,13 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -789,10 +789,10 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -944,16 +944,16 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1153,10 +1153,10 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
         <v>126</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
@@ -1350,19 +1350,19 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1407,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -4569,34 +4569,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.35</v>
@@ -4605,22 +4605,22 @@
         <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -4644,7 +4644,7 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
@@ -4653,16 +4653,16 @@
         <v>7.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
         <v>26</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
@@ -4671,7 +4671,7 @@
         <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4686,7 +4686,7 @@
         <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4695,7 +4695,7 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
         <v>17</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -4766,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -4793,10 +4793,10 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4841,7 +4841,7 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4877,13 +4877,13 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX24" t="n">
         <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>51</v>
@@ -7481,13 +7481,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
         <v>2.88</v>
@@ -7511,10 +7511,10 @@
         <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7547,13 +7547,13 @@
         <v>26</v>
       </c>
       <c r="AC39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
         <v>6.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
@@ -7568,13 +7568,13 @@
         <v>17</v>
       </c>
       <c r="AJ39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
@@ -7601,7 +7601,7 @@
         <v>2.75</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
@@ -7619,7 +7619,7 @@
         <v>51</v>
       </c>
       <c r="BA39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB39" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1344,10 +1344,10 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1377,7 +1377,7 @@
         <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
         <v>19</v>
@@ -7481,40 +7481,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
@@ -7523,10 +7523,10 @@
         <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
         <v>8</v>
@@ -7535,16 +7535,16 @@
         <v>11</v>
       </c>
       <c r="Y39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z39" t="n">
         <v>21</v>
       </c>
       <c r="AA39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC39" t="n">
         <v>10</v>
@@ -7556,25 +7556,25 @@
         <v>15</v>
       </c>
       <c r="AF39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG39" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK39" t="n">
         <v>34</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
@@ -7583,16 +7583,16 @@
         <v>4.33</v>
       </c>
       <c r="AO39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ39" t="n">
         <v>41</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS39" t="n">
         <v>151</v>
@@ -7622,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC39" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1317,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1329,31 +1329,31 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1374,25 +1374,25 @@
         <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1410,7 +1410,7 @@
         <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1419,16 +1419,16 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -4772,7 +4772,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -4793,13 +4793,13 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -4877,7 +4877,7 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX24" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.9</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1353,13 +1353,13 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
@@ -1431,10 +1431,10 @@
         <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -4751,40 +4751,40 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
         <v>1.5</v>
@@ -4799,19 +4799,19 @@
         <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
         <v>29</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>26</v>
       </c>
       <c r="AB24" t="n">
         <v>41</v>
@@ -4835,25 +4835,25 @@
         <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4877,19 +4877,19 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD39"/>
+  <dimension ref="A1:BD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EJnLwIdE</t>
+          <t>KIEhL9tm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,133 +2558,133 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
+        <v>21</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W12" t="n">
+        <v>19</v>
+      </c>
+      <c r="X12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
         <v>9</v>
       </c>
-      <c r="Z12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL12" t="n">
         <v>12</v>
       </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>23</v>
-      </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2693,25 +2693,25 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KIEhL9tm</t>
+          <t>Sl19HRuC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,55 +2740,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T13" t="n">
         <v>4.33</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>21</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2797,28 +2797,28 @@
         <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
       </c>
       <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
         <v>26</v>
       </c>
-      <c r="AC13" t="n">
-        <v>23</v>
-      </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2827,10 +2827,10 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>11</v>
@@ -2842,13 +2842,13 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2866,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -2878,13 +2878,13 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>34</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sl19HRuC</t>
+          <t>URSA5tlt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
         <v>15</v>
       </c>
-      <c r="Z14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>26</v>
-      </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
       </c>
       <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AG14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>11</v>
-      </c>
       <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>17</v>
       </c>
-      <c r="AN14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>URSA5tlt</t>
+          <t>ANepkL3a</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,169 +3104,169 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY15" t="n">
         <v>34</v>
       </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
+      <c r="AZ15" t="n">
         <v>101</v>
       </c>
-      <c r="AT15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>67</v>
-      </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANepkL3a</t>
+          <t>lEflluJ5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,169 +3286,169 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.22</v>
       </c>
-      <c r="P16" t="n">
+      <c r="T16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
         <v>8.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
         <v>19</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>29</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
         <v>17</v>
       </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lEflluJ5</t>
+          <t>ryfhmaYB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,169 +3468,169 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.4</v>
       </c>
-      <c r="R17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.22</v>
-      </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
         <v>11</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
         <v>26</v>
       </c>
-      <c r="AG17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>19</v>
-      </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
         <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ryfhmaYB</t>
+          <t>dvbdnJmI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,133 +3650,133 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.1</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.93</v>
-      </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
         <v>8</v>
       </c>
-      <c r="X18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,16 +3785,16 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3806,13 +3806,13 @@
         <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dvbdnJmI</t>
+          <t>v3m1ow3O</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,85 +3832,85 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>5.25</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>1.48</v>
       </c>
       <c r="J19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>19</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.25</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3919,73 +3919,73 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
         <v>151</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AT19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY19" t="n">
         <v>15</v>
       </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AZ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA19" t="n">
         <v>34</v>
       </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ19" t="n">
+      <c r="BB19" t="n">
         <v>81</v>
       </c>
-      <c r="BA19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>v3m1ow3O</t>
+          <t>Ign5pcIU</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,85 +4014,85 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.25</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>26</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T20" t="n">
         <v>4.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X20" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB20" t="n">
         <v>17</v>
       </c>
-      <c r="Z20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>34</v>
-      </c>
       <c r="AC20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4101,46 +4101,46 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AL20" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4149,25 +4149,25 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ign5pcIU</t>
+          <t>8IRE403n</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,133 +4196,133 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.38</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>10</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK21" t="n">
         <v>26</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
         <v>13</v>
       </c>
-      <c r="X21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AP21" t="n">
         <v>21</v>
       </c>
-      <c r="AK21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4331,34 +4331,34 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
         <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8IRE403n</t>
+          <t>CSJ5Cz7M</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
         <v>2.63</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI22" t="n">
         <v>13</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>10</v>
-      </c>
-      <c r="X22" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>11</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AK22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>15</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
-      </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
         <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CSJ5Cz7M</t>
+          <t>8b5y7EUq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,76 +4560,76 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
@@ -4644,34 +4644,34 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4686,7 +4686,7 @@
         <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4695,22 +4695,22 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8b5y7EUq</t>
+          <t>f9nAK0Ak</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,95 +4732,95 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.35</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L24" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.36</v>
       </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="n">
         <v>8.5</v>
       </c>
-      <c r="X24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4829,82 +4829,82 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP24" t="n">
         <v>19</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AQ24" t="n">
         <v>29</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
       <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>81</v>
       </c>
-      <c r="AS24" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>41</v>
-      </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
         <v>201</v>
       </c>
       <c r="BC24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD24" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>f9nAK0Ak</t>
+          <t>CdkHOHDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,129 +4919,129 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>10</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH25" t="n">
         <v>11</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO25" t="n">
         <v>13</v>
       </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>9</v>
-      </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5050,34 +5050,34 @@
         <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW25" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC25" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CdkHOHDT</t>
+          <t>rLy3w6ZR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
       </c>
       <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX26" t="n">
         <v>23</v>
       </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS26" t="n">
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA26" t="n">
         <v>126</v>
       </c>
-      <c r="AT26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>51</v>
-      </c>
       <c r="BB26" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rLy3w6ZR</t>
+          <t>j7Cgybnp</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,97 +5288,97 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L27" t="n">
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S27" t="n">
         <v>1.4</v>
       </c>
-      <c r="P27" t="n">
+      <c r="T27" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y27" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5390,55 +5390,55 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>67</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="BA27" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB27" t="n">
         <v>201</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>301</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>j7Cgybnp</t>
+          <t>bwa1Q3sm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,167 +5460,167 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I28" t="n">
         <v>1.85</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.33</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.5</v>
+        <v>4.05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L28" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T28" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AA28" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG28" t="n">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>8.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AR28" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>3.85</v>
       </c>
       <c r="AX28" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="AY28" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="BA28" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="BB28" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bwa1Q3sm</t>
+          <t>WWCsJtN0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="J29" t="n">
-        <v>4.05</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU29" t="n">
         <v>8</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>7</v>
-      </c>
       <c r="AV29" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.25</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ29" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="BA29" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD29" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>WWCsJtN0</t>
+          <t>Khiwx4MO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,41 +5824,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -5867,49 +5867,49 @@
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
         <v>1.91</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
         <v>19</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>17</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
@@ -5921,19 +5921,19 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5942,25 +5942,25 @@
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5969,7 +5969,7 @@
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>19</v>
@@ -5987,16 +5987,16 @@
         <v>201</v>
       </c>
       <c r="BC30" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD30" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Khiwx4MO</t>
+          <t>z5Rnd77t</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,136 +6016,136 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.1</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.3</v>
-      </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
+        <v>13</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W31" t="n">
         <v>9</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W31" t="n">
-        <v>7</v>
-      </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
       </c>
       <c r="AL31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM31" t="n">
         <v>29</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>4.33</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS31" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
         <v>51</v>
@@ -6154,19 +6154,19 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA31" t="n">
         <v>67</v>
       </c>
-      <c r="BA31" t="n">
-        <v>81</v>
-      </c>
       <c r="BB31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>501</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>z5Rnd77t</t>
+          <t>YeuL0maP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6198,160 +6198,160 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P32" t="n">
         <v>2.75</v>
       </c>
-      <c r="K32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="Q32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>8</v>
+      </c>
+      <c r="X32" t="n">
         <v>13</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>9</v>
-      </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI32" t="n">
         <v>12</v>
       </c>
-      <c r="Y32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
         <v>23</v>
       </c>
       <c r="AM32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP32" t="n">
         <v>29</v>
       </c>
-      <c r="AN32" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC32" t="n">
         <v>126</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>501</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>YeuL0maP</t>
+          <t>dpqUaVDI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,164 +6370,164 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>13</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
         <v>3.6</v>
       </c>
-      <c r="K33" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="AO33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU33" t="n">
         <v>8</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W33" t="n">
-        <v>8</v>
-      </c>
-      <c r="X33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA33" t="n">
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX33" t="n">
         <v>26</v>
       </c>
-      <c r="AB33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM33" t="n">
+      <c r="AY33" t="n">
         <v>34</v>
       </c>
-      <c r="AN33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB33" t="n">
         <v>201</v>
@@ -6536,13 +6536,13 @@
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dpqUaVDI</t>
+          <t>xjV6yHjC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6557,93 +6557,93 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.62</v>
       </c>
-      <c r="H34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
       <c r="S34" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="n">
         <v>8</v>
       </c>
-      <c r="Y34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
       <c r="AD34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
@@ -6652,79 +6652,79 @@
         <v>301</v>
       </c>
       <c r="AH34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO34" t="n">
         <v>13</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AP34" t="n">
         <v>26</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO34" t="n">
+      <c r="AQ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU34" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8</v>
-      </c>
       <c r="AV34" t="n">
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX34" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AY34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ34" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
       </c>
       <c r="BC34" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD34" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>xjV6yHjC</t>
+          <t>tQvQcpgg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,90 +6739,90 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
         <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W35" t="n">
         <v>8</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W35" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC35" t="n">
         <v>10</v>
       </c>
-      <c r="Z35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8</v>
-      </c>
       <c r="AD35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE35" t="n">
         <v>15</v>
@@ -6831,13 +6831,13 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -6849,31 +6849,31 @@
         <v>26</v>
       </c>
       <c r="AM35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN35" t="n">
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6882,10 +6882,10 @@
         <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ35" t="n">
         <v>51</v>
@@ -6897,16 +6897,16 @@
         <v>201</v>
       </c>
       <c r="BC35" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="BD35" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tQvQcpgg</t>
+          <t>xdM89Vcl</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="U36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.8</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
         <v>19</v>
       </c>
       <c r="AA36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="n">
-        <v>251</v>
+        <v>700</v>
       </c>
       <c r="AH36" t="n">
         <v>10</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AN36" t="n">
-        <v>4.33</v>
+        <v>3.85</v>
       </c>
       <c r="AO36" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW36" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AX36" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AY36" t="n">
         <v>26</v>
       </c>
       <c r="AZ36" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BA36" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC36" t="n">
         <v>81</v>
       </c>
-      <c r="BB36" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>126</v>
-      </c>
       <c r="BD36" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>xdM89Vcl</t>
+          <t>O6P13Z3b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S37" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W37" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
         <v>7.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AG37" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO37" t="n">
         <v>13</v>
       </c>
-      <c r="AK37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AP37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX37" t="n">
         <v>19</v>
       </c>
-      <c r="AQ37" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>22</v>
-      </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ37" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="BA37" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BB37" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="BC37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD37" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>O6P13Z3b</t>
+          <t>dKN91DYA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7290,112 +7290,112 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>2.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W38" t="n">
         <v>8</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W38" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH38" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK38" t="n">
         <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="n">
         <v>4.33</v>
@@ -7404,230 +7404,48 @@
         <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
       </c>
       <c r="AR38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS38" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW38" t="n">
         <v>5</v>
       </c>
       <c r="AX38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY38" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ38" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB38" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC38" t="n">
         <v>51</v>
       </c>
       <c r="BD38" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>dKN91DYA</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N39" t="n">
-        <v>10</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W39" t="n">
-        <v>8</v>
-      </c>
-      <c r="X39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD39" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD38"/>
+  <dimension ref="A1:BD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KIEhL9tm</t>
+          <t>EJnLwIdE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,133 +2558,133 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R12" t="n">
         <v>2.2</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
         <v>21</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W12" t="n">
-        <v>19</v>
-      </c>
-      <c r="X12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>15</v>
       </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>29</v>
-      </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>12</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>11</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21</v>
-      </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>7</v>
@@ -2693,25 +2693,25 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sl19HRuC</t>
+          <t>KIEhL9tm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,55 +2740,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
         <v>1.44</v>
@@ -2797,28 +2797,28 @@
         <v>2.63</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2827,10 +2827,10 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>11</v>
@@ -2842,13 +2842,13 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2866,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>7</v>
@@ -2878,13 +2878,13 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
         <v>34</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>URSA5tlt</t>
+          <t>Sl19HRuC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J14" t="n">
         <v>4.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.25</v>
-      </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
+        <v>23</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W14" t="n">
+        <v>23</v>
+      </c>
+      <c r="X14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="n">
         <v>15</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB14" t="n">
         <v>67</v>
       </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>151</v>
-      </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="n">
         <v>151</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ANepkL3a</t>
+          <t>URSA5tlt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,169 +3104,169 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
         <v>4.33</v>
       </c>
-      <c r="I15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP15" t="n">
         <v>17</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AQ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>67</v>
       </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>101</v>
-      </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lEflluJ5</t>
+          <t>ANepkL3a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,169 +3286,169 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="S16" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>8.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP16" t="n">
         <v>19</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
+      <c r="AQ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX16" t="n">
         <v>29</v>
       </c>
-      <c r="AL16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ16" t="n">
+      <c r="AY16" t="n">
         <v>34</v>
       </c>
-      <c r="AR16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ryfhmaYB</t>
+          <t>lEflluJ5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,169 +3468,169 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.4</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>2.75</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
         <v>10</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
       </c>
       <c r="AB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF17" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AG17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>11</v>
       </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AW17" t="n">
         <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
         <v>81</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BC17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD17" t="n">
         <v>151</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dvbdnJmI</t>
+          <t>ryfhmaYB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,133 +3650,133 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>13</v>
       </c>
-      <c r="AA18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3785,16 +3785,16 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3806,13 +3806,13 @@
         <v>126</v>
       </c>
       <c r="BD18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>v3m1ow3O</t>
+          <t>dvbdnJmI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,85 +3832,85 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.25</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
         <v>4.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.48</v>
-      </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="K19" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3919,73 +3919,73 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
         <v>126</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ign5pcIU</t>
+          <t>v3m1ow3O</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,85 +4014,85 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Valerenga</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>5.25</v>
       </c>
       <c r="H20" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>6.5</v>
+        <v>1.48</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="T20" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W20" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4101,46 +4101,46 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AR20" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU20" t="n">
         <v>7.5</v>
@@ -4149,25 +4149,25 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB20" t="n">
         <v>81</v>
       </c>
-      <c r="BA20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>126</v>
-      </c>
       <c r="BC20" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4176,7 +4176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8IRE403n</t>
+          <t>Ign5pcIU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4196,133 +4196,133 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Valerenga</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>1.38</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="L21" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
+        <v>26</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W21" t="n">
         <v>13</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
         <v>4</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W21" t="n">
-        <v>10</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="AO21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP21" t="n">
         <v>13</v>
       </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
+      <c r="AQ21" t="n">
         <v>15</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="AU21" t="n">
         <v>7.5</v>
@@ -4331,34 +4331,34 @@
         <v>41</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
         <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CSJ5Cz7M</t>
+          <t>8IRE403n</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4368,179 +4368,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.1</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K22" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.57</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
         <v>7</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
         <v>11</v>
       </c>
-      <c r="Y22" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="n">
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="n">
         <v>26</v>
       </c>
-      <c r="AA22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW22" t="n">
         <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC22" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8b5y7EUq</t>
+          <t>CSJ5Cz7M</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4560,76 +4560,76 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.35</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U23" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
@@ -4644,34 +4644,34 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4686,7 +4686,7 @@
         <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4695,22 +4695,22 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4722,7 +4722,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>f9nAK0Ak</t>
+          <t>8b5y7EUq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4732,95 +4732,95 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>2.35</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.8</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4829,82 +4829,82 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
         <v>251</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX24" t="n">
         <v>13</v>
       </c>
-      <c r="AI24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>23</v>
-      </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
         <v>201</v>
       </c>
       <c r="BC24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CdkHOHDT</t>
+          <t>f9nAK0Ak</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4919,129 +4919,129 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>S. Rzeszow</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
         <v>13</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>10</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>13</v>
       </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI25" t="n">
         <v>23</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP25" t="n">
         <v>19</v>
       </c>
-      <c r="AB25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AQ25" t="n">
         <v>29</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5050,34 +5050,34 @@
         <v>126</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA25" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB25" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5086,7 +5086,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rLy3w6ZR</t>
+          <t>CdkHOHDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5096,179 +5096,179 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>S. Rzeszow</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J26" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X26" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC26" t="n">
         <v>351</v>
       </c>
-      <c r="AH26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ26" t="n">
+      <c r="BD26" t="n">
         <v>81</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>j7Cgybnp</t>
+          <t>rLy3w6ZR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5288,97 +5288,97 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH27" t="n">
         <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5390,55 +5390,55 @@
         <v>41</v>
       </c>
       <c r="AL27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY27" t="n">
         <v>34</v>
       </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC27" t="n">
         <v>51</v>
@@ -5450,7 +5450,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bwa1Q3sm</t>
+          <t>j7Cgybnp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5460,167 +5460,167 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>FC Rapid Bucuresti</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>1.85</v>
+        <v>4.33</v>
       </c>
       <c r="J28" t="n">
-        <v>4.05</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
       </c>
       <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
         <v>8</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>7</v>
-      </c>
       <c r="AV28" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="BA28" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC28" t="n">
         <v>51</v>
@@ -5632,7 +5632,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WWCsJtN0</t>
+          <t>bwa1Q3sm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5642,179 +5642,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V29" t="n">
         <v>2.1</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AY29" t="n">
         <v>17</v>
       </c>
-      <c r="AB29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="BA29" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="BB29" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BC29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD29" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Khiwx4MO</t>
+          <t>WWCsJtN0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5824,41 +5824,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -5867,49 +5867,49 @@
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
         <v>1.91</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
@@ -5921,19 +5921,19 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5942,25 +5942,25 @@
         <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -5969,7 +5969,7 @@
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX30" t="n">
         <v>19</v>
@@ -5987,16 +5987,16 @@
         <v>201</v>
       </c>
       <c r="BC30" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>z5Rnd77t</t>
+          <t>Khiwx4MO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -6016,136 +6016,136 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Norrkoping</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.15</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>13</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
       </c>
       <c r="AL31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>4.33</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>41</v>
       </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>51</v>
@@ -6154,19 +6154,19 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC31" t="n">
         <v>501</v>
@@ -6178,7 +6178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YeuL0maP</t>
+          <t>z5Rnd77t</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6198,160 +6198,160 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Norrkoping</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I32" t="n">
         <v>3.1</v>
       </c>
-      <c r="I32" t="n">
-        <v>2.55</v>
-      </c>
       <c r="J32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L32" t="n">
         <v>3.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R32" t="n">
         <v>2</v>
       </c>
-      <c r="L32" t="n">
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
         <v>3.25</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>11</v>
       </c>
-      <c r="Z32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>10</v>
-      </c>
       <c r="AK32" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
         <v>23</v>
       </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX32" t="n">
         <v>17</v>
       </c>
-      <c r="AP32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV32" t="n">
+      <c r="AY32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA32" t="n">
         <v>67</v>
       </c>
-      <c r="AW32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>81</v>
-      </c>
       <c r="BB32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD32" t="n">
         <v>151</v>
@@ -6360,7 +6360,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dpqUaVDI</t>
+          <t>YeuL0maP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6370,164 +6370,164 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
         <v>4.75</v>
       </c>
-      <c r="J33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>13</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T33" t="n">
-        <v>3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W33" t="n">
-        <v>7</v>
-      </c>
-      <c r="X33" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y33" t="n">
+      <c r="AO33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU33" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY33" t="n">
         <v>26</v>
       </c>
-      <c r="AC33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
         <v>201</v>
@@ -6536,13 +6536,13 @@
         <v>126</v>
       </c>
       <c r="BD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>xjV6yHjC</t>
+          <t>dpqUaVDI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6557,93 +6557,93 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K34" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P34" t="n">
         <v>3.75</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7</v>
+      </c>
+      <c r="X34" t="n">
         <v>8</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X34" t="n">
-        <v>11</v>
-      </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD34" t="n">
         <v>8</v>
       </c>
-      <c r="AD34" t="n">
-        <v>6</v>
-      </c>
       <c r="AE34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
         <v>51</v>
@@ -6652,79 +6652,79 @@
         <v>301</v>
       </c>
       <c r="AH34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO34" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK34" t="n">
+      <c r="AP34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY34" t="n">
         <v>34</v>
       </c>
-      <c r="AL34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB34" t="n">
         <v>201</v>
       </c>
       <c r="BC34" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="BD34" t="n">
-        <v>276</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tQvQcpgg</t>
+          <t>xjV6yHjC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6739,90 +6739,90 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
         <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L35" t="n">
         <v>3.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X35" t="n">
         <v>11</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC35" t="n">
         <v>8</v>
       </c>
-      <c r="X35" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>10</v>
-      </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE35" t="n">
         <v>15</v>
@@ -6831,13 +6831,13 @@
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH35" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>12</v>
@@ -6849,31 +6849,31 @@
         <v>26</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
         <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP35" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ35" t="n">
         <v>41</v>
       </c>
       <c r="AR35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV35" t="n">
         <v>51</v>
@@ -6882,10 +6882,10 @@
         <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ35" t="n">
         <v>51</v>
@@ -6897,16 +6897,16 @@
         <v>201</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD35" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xdM89Vcl</t>
+          <t>tQvQcpgg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6916,179 +6916,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>11</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q36" t="n">
         <v>1.98</v>
       </c>
-      <c r="L36" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="R36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W36" t="n">
         <v>8</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W36" t="n">
-        <v>6.3</v>
-      </c>
       <c r="X36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="n">
         <v>9</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
         <v>19</v>
       </c>
       <c r="AA36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
       <c r="AH36" t="n">
         <v>10</v>
       </c>
       <c r="AI36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP36" t="n">
         <v>21</v>
       </c>
-      <c r="AJ36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP36" t="n">
+      <c r="AQ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX36" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>22</v>
       </c>
       <c r="AY36" t="n">
         <v>26</v>
       </c>
       <c r="AZ36" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="BA36" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="BC36" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD36" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>O6P13Z3b</t>
+          <t>xdM89Vcl</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7098,179 +7098,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="H37" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
         <v>8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="R37" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="T37" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="V37" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W37" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
         <v>7.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP37" t="n">
         <v>19</v>
       </c>
-      <c r="AF37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP37" t="n">
+      <c r="AQ37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY37" t="n">
         <v>26</v>
       </c>
-      <c r="AQ37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR37" t="n">
+      <c r="AZ37" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC37" t="n">
         <v>81</v>
       </c>
-      <c r="AS37" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>51</v>
-      </c>
       <c r="BD37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dKN91DYA</t>
+          <t>O6P13Z3b</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7290,112 +7290,112 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>2.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.1</v>
       </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X38" t="n">
         <v>10</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W38" t="n">
-        <v>8</v>
-      </c>
-      <c r="X38" t="n">
-        <v>11</v>
-      </c>
       <c r="Y38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
         <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
       </c>
       <c r="AJ38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK38" t="n">
         <v>34</v>
       </c>
       <c r="AL38" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="n">
         <v>4.33</v>
@@ -7404,48 +7404,230 @@
         <v>13</v>
       </c>
       <c r="AP38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ38" t="n">
         <v>41</v>
       </c>
       <c r="AR38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV38" t="n">
         <v>67</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>51</v>
       </c>
       <c r="AW38" t="n">
         <v>5</v>
       </c>
       <c r="AX38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dKN91DYA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>21/10/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W39" t="n">
+        <v>8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX39" t="n">
         <v>17</v>
       </c>
-      <c r="AY38" t="n">
+      <c r="AY39" t="n">
         <v>26</v>
       </c>
-      <c r="AZ38" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA38" t="n">
+      <c r="AZ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA39" t="n">
         <v>81</v>
       </c>
-      <c r="BB38" t="n">
+      <c r="BB39" t="n">
         <v>201</v>
       </c>
-      <c r="BC38" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD38" t="n">
+      <c r="BC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD39" t="n">
         <v>51</v>
       </c>
     </row>
